--- a/기획/방랑엽사전/능력치&경험치 테이블.xlsx
+++ b/기획/방랑엽사전/능력치&경험치 테이블.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\방랑엽사전\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBC0A83-3DAC-4BCA-88D6-8356249E168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E302D5-2C48-4EF4-BA6C-17DCC030EBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{66256CB9-C889-4633-A23D-D48C9A3411D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{66256CB9-C889-4633-A23D-D48C9A3411D3}"/>
   </bookViews>
   <sheets>
     <sheet name="능력치 한계치" sheetId="1" r:id="rId1"/>
-    <sheet name="능력치 상승치" sheetId="2" r:id="rId2"/>
-    <sheet name="필요 경험치" sheetId="3" r:id="rId3"/>
+    <sheet name="경지 상승시 상승 능력치" sheetId="2" r:id="rId2"/>
+    <sheet name="메인" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
   <si>
     <t>체력</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,39 +55,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레벨</t>
+    <t>필요 경험치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1→2</t>
+    <t>경지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2→3</t>
+    <t>현재 레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3→4</t>
+    <t>다음 레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4→5</t>
+    <t>체력 한계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5→6</t>
+    <t>지구력 한계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6→7</t>
+    <t>내공 한계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7→8</t>
+    <t>외공 한계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필요 경험치</t>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,8 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -136,11 +138,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,7 +486,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -473,7 +499,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -493,10 +519,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>55</v>
@@ -510,10 +536,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>70</v>
@@ -527,10 +553,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>85</v>
@@ -544,10 +570,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -561,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="C6">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -578,10 +604,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>750</v>
+        <v>1750</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D7">
         <v>300</v>
@@ -595,10 +621,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C8">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -612,10 +638,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -635,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10747086-0CBA-4C42-82E7-668E79E4A4ED}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -646,7 +672,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -662,11 +688,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -679,11 +705,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -696,11 +722,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -713,8 +739,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -730,8 +756,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="A6">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -747,8 +773,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
+      <c r="A7">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -764,14 +790,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="A8">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>500</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -783,837 +809,7046 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EEBB7F-1E4A-43C5-99C5-1E323250922C}">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>250</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2">
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
+        <v>55</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>225</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3">
+        <v>260</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>55</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>236.25</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <v>270</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <v>55</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <v>55</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>65.6666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>248.0625</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>280</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
+        <v>55</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2">
+        <v>55</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>70.9166666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>259.5</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="E6">
+        <v>290</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2">
+        <v>55</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2">
+        <v>55</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>76.1666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>271.03125</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2">
+        <v>55</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>81.4166666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>282.5625</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>310</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2">
+        <v>55</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2">
+        <v>55</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>86.6666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>294.09375</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>320</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2">
+        <v>55</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>91.9166666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>305.625</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+      <c r="E10">
+        <v>330</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <v>55</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2">
+        <v>55</v>
+      </c>
+      <c r="K10">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>97.1666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>317.15625</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <v>340</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
+        <v>55</v>
+      </c>
+      <c r="I11">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2">
+        <v>55</v>
+      </c>
+      <c r="K11">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>102.416666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>328.6875</v>
+      </c>
+      <c r="D12">
+        <v>750</v>
+      </c>
+      <c r="E12">
+        <v>365</v>
+      </c>
+      <c r="F12">
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2">
+        <v>70</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>107.666666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>340.21875</v>
+      </c>
+      <c r="D13">
+        <v>750</v>
+      </c>
+      <c r="E13">
+        <v>375</v>
+      </c>
+      <c r="F13">
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2">
+        <v>70</v>
+      </c>
+      <c r="K13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>112.916666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>351.75</v>
+      </c>
+      <c r="D14">
+        <v>750</v>
+      </c>
+      <c r="E14">
+        <v>385</v>
+      </c>
+      <c r="F14">
+        <v>75</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14" s="2">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2">
+        <v>70</v>
+      </c>
+      <c r="K14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>118.166666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>363.28125</v>
+      </c>
+      <c r="D15">
+        <v>750</v>
+      </c>
+      <c r="E15">
+        <v>395</v>
+      </c>
+      <c r="F15">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" s="2">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2">
+        <v>70</v>
+      </c>
+      <c r="K15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>123.416666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>374.8125</v>
+      </c>
+      <c r="D16">
+        <v>750</v>
+      </c>
+      <c r="E16">
+        <v>405</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2">
+        <v>70</v>
+      </c>
+      <c r="I16">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2">
+        <v>70</v>
+      </c>
+      <c r="K16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>128.666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>386.34375</v>
+      </c>
+      <c r="D17">
+        <v>750</v>
+      </c>
+      <c r="E17">
+        <v>415</v>
+      </c>
+      <c r="F17">
+        <v>75</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17" s="2">
+        <v>70</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2">
+        <v>70</v>
+      </c>
+      <c r="K17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>133.916666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>397.875</v>
+      </c>
+      <c r="D18">
+        <v>750</v>
+      </c>
+      <c r="E18">
+        <v>425</v>
+      </c>
+      <c r="F18">
+        <v>75</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2">
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>26</v>
+      </c>
+      <c r="J18" s="2">
+        <v>70</v>
+      </c>
+      <c r="K18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>139.166666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>409.40625</v>
+      </c>
+      <c r="D19">
+        <v>750</v>
+      </c>
+      <c r="E19">
+        <v>435</v>
+      </c>
+      <c r="F19">
+        <v>75</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2">
+        <v>70</v>
+      </c>
+      <c r="I19">
+        <v>27</v>
+      </c>
+      <c r="J19" s="2">
+        <v>70</v>
+      </c>
+      <c r="K19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>144.416666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>420.9375</v>
+      </c>
+      <c r="D20">
+        <v>750</v>
+      </c>
+      <c r="E20">
+        <v>445</v>
+      </c>
+      <c r="F20">
+        <v>75</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2">
+        <v>70</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+      <c r="J20" s="2">
+        <v>70</v>
+      </c>
+      <c r="K20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>149.666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>432.46875</v>
+      </c>
+      <c r="D21">
+        <v>750</v>
+      </c>
+      <c r="E21">
+        <v>455</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21" s="2">
+        <v>70</v>
+      </c>
+      <c r="I21">
+        <v>29</v>
+      </c>
+      <c r="J21" s="2">
+        <v>70</v>
+      </c>
+      <c r="K21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>154.916666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>444</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>490</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22" s="2">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>160.166666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>455.53125</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>500</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <v>31</v>
+      </c>
+      <c r="J23" s="2">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>165.416666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>467.0625</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>510</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2">
+        <v>85</v>
+      </c>
+      <c r="I24">
+        <v>32</v>
+      </c>
+      <c r="J24" s="2">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>170.666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>478.59375</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25">
+        <v>520</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25" s="2">
+        <v>85</v>
+      </c>
+      <c r="I25">
+        <v>33</v>
+      </c>
+      <c r="J25" s="2">
+        <v>85</v>
+      </c>
+      <c r="K25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>175.916666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>490.125</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>530</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26" s="2">
+        <v>85</v>
+      </c>
+      <c r="I26">
+        <v>34</v>
+      </c>
+      <c r="J26" s="2">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>181.166666666667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>501.65625</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+      <c r="E27">
+        <v>540</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27" s="2">
+        <v>85</v>
+      </c>
+      <c r="I27">
+        <v>35</v>
+      </c>
+      <c r="J27" s="2">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>186.416666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>513.1875</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28">
+        <v>550</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28" s="2">
+        <v>85</v>
+      </c>
+      <c r="I28">
+        <v>36</v>
+      </c>
+      <c r="J28" s="2">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>191.666666666667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>524.71875</v>
+      </c>
+      <c r="D29">
+        <v>1000</v>
+      </c>
+      <c r="E29">
+        <v>560</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="H29" s="2">
+        <v>85</v>
+      </c>
+      <c r="I29">
+        <v>37</v>
+      </c>
+      <c r="J29" s="2">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>196.916666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>536.25</v>
+      </c>
+      <c r="D30">
+        <v>1000</v>
+      </c>
+      <c r="E30">
+        <v>570</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30" s="2">
+        <v>85</v>
+      </c>
+      <c r="I30">
+        <v>38</v>
+      </c>
+      <c r="J30" s="2">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>202.166666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>547.78125</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
+      </c>
+      <c r="E31">
+        <v>580</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31" s="2">
+        <v>85</v>
+      </c>
+      <c r="I31">
+        <v>39</v>
+      </c>
+      <c r="J31" s="2">
+        <v>85</v>
+      </c>
+      <c r="K31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>207.416666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>559.3125</v>
+      </c>
+      <c r="D32">
+        <v>1250</v>
+      </c>
+      <c r="E32">
+        <v>605</v>
+      </c>
+      <c r="F32">
+        <v>125</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32" s="2">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>40</v>
+      </c>
+      <c r="J32" s="2">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>212.666666666667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>570.84375</v>
+      </c>
+      <c r="D33">
+        <v>1250</v>
+      </c>
+      <c r="E33">
+        <v>615</v>
+      </c>
+      <c r="F33">
+        <v>125</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33" s="2">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>41</v>
+      </c>
+      <c r="J33" s="2">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>217.916666666667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>582.375</v>
+      </c>
+      <c r="D34">
+        <v>1250</v>
+      </c>
+      <c r="E34">
+        <v>625</v>
+      </c>
+      <c r="F34">
+        <v>125</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="H34" s="2">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>42</v>
+      </c>
+      <c r="J34" s="2">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
-        <v>223.166666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1">
+        <v>593.90625</v>
+      </c>
+      <c r="D35">
+        <v>1250</v>
+      </c>
+      <c r="E35">
+        <v>635</v>
+      </c>
+      <c r="F35">
+        <v>125</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35" s="2">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>43</v>
+      </c>
+      <c r="J35" s="2">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>228.416666666667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1">
+        <v>605.4375</v>
+      </c>
+      <c r="D36">
+        <v>1250</v>
+      </c>
+      <c r="E36">
+        <v>645</v>
+      </c>
+      <c r="F36">
+        <v>125</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="H36" s="2">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>44</v>
+      </c>
+      <c r="J36" s="2">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>233.666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1">
+        <v>616.96875</v>
+      </c>
+      <c r="D37">
+        <v>1250</v>
+      </c>
+      <c r="E37">
+        <v>655</v>
+      </c>
+      <c r="F37">
+        <v>125</v>
+      </c>
+      <c r="G37">
+        <v>50</v>
+      </c>
+      <c r="H37" s="2">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>45</v>
+      </c>
+      <c r="J37" s="2">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>238.916666666667</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1">
+        <v>628.5</v>
+      </c>
+      <c r="D38">
+        <v>1250</v>
+      </c>
+      <c r="E38">
+        <v>665</v>
+      </c>
+      <c r="F38">
+        <v>125</v>
+      </c>
+      <c r="G38">
+        <v>50</v>
+      </c>
+      <c r="H38" s="2">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>46</v>
+      </c>
+      <c r="J38" s="2">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>244.166666666667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1">
+        <v>640.03125</v>
+      </c>
+      <c r="D39">
+        <v>1250</v>
+      </c>
+      <c r="E39">
+        <v>675</v>
+      </c>
+      <c r="F39">
+        <v>125</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39" s="2">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>47</v>
+      </c>
+      <c r="J39" s="2">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>249.416666666667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1">
+        <v>651.5625</v>
+      </c>
+      <c r="D40">
+        <v>1250</v>
+      </c>
+      <c r="E40">
+        <v>685</v>
+      </c>
+      <c r="F40">
+        <v>125</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="H40" s="2">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>48</v>
+      </c>
+      <c r="J40" s="2">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>254.666666666667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1">
+        <v>663.09375</v>
+      </c>
+      <c r="D41">
+        <v>1250</v>
+      </c>
+      <c r="E41">
+        <v>695</v>
+      </c>
+      <c r="F41">
+        <v>125</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41" s="2">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>49</v>
+      </c>
+      <c r="J41" s="2">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
-        <v>305.60000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1044.3726562500001</v>
+      </c>
+      <c r="D42">
+        <v>1250</v>
+      </c>
+      <c r="E42">
+        <v>705</v>
+      </c>
+      <c r="F42">
+        <v>125</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+      <c r="H42" s="2">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+      <c r="J42" s="2">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
-        <v>366.72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1096.5912890625</v>
+      </c>
+      <c r="D43">
+        <v>1250</v>
+      </c>
+      <c r="E43">
+        <v>715</v>
+      </c>
+      <c r="F43">
+        <v>125</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43" s="2">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>51</v>
+      </c>
+      <c r="J43" s="2">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <v>421.048888888889</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1151.4208535156199</v>
+      </c>
+      <c r="D44">
+        <v>1250</v>
+      </c>
+      <c r="E44">
+        <v>725</v>
+      </c>
+      <c r="F44">
+        <v>125</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+      <c r="H44" s="2">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>52</v>
+      </c>
+      <c r="J44" s="2">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
-        <v>477.07555555555501</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1204.5097968749899</v>
+      </c>
+      <c r="D45">
+        <v>1250</v>
+      </c>
+      <c r="E45">
+        <v>735</v>
+      </c>
+      <c r="F45">
+        <v>125</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45" s="2">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>53</v>
+      </c>
+      <c r="J45" s="2">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
-        <v>533.10222222222205</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1258.0338955078</v>
+      </c>
+      <c r="D46">
+        <v>1250</v>
+      </c>
+      <c r="E46">
+        <v>745</v>
+      </c>
+      <c r="F46">
+        <v>125</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="H46" s="2">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>54</v>
+      </c>
+      <c r="J46" s="2">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
-        <v>589.12888888888801</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1311.5579941406099</v>
+      </c>
+      <c r="D47">
+        <v>1250</v>
+      </c>
+      <c r="E47">
+        <v>755</v>
+      </c>
+      <c r="F47">
+        <v>125</v>
+      </c>
+      <c r="G47">
+        <v>50</v>
+      </c>
+      <c r="H47" s="2">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>55</v>
+      </c>
+      <c r="J47" s="2">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
-        <v>645.155555555555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1365.0820927734201</v>
+      </c>
+      <c r="D48">
+        <v>1250</v>
+      </c>
+      <c r="E48">
+        <v>765</v>
+      </c>
+      <c r="F48">
+        <v>125</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
+      </c>
+      <c r="H48" s="2">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>56</v>
+      </c>
+      <c r="J48" s="2">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
-        <v>701.18222222222096</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1418.60619140623</v>
+      </c>
+      <c r="D49">
+        <v>1250</v>
+      </c>
+      <c r="E49">
+        <v>775</v>
+      </c>
+      <c r="F49">
+        <v>125</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="H49" s="2">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>57</v>
+      </c>
+      <c r="J49" s="2">
+        <v>100</v>
+      </c>
+      <c r="K49">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
-        <v>757.20888888888805</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1472.1302900390399</v>
+      </c>
+      <c r="D50">
+        <v>1250</v>
+      </c>
+      <c r="E50">
+        <v>785</v>
+      </c>
+      <c r="F50">
+        <v>125</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="H50" s="2">
+        <v>100</v>
+      </c>
+      <c r="I50">
+        <v>58</v>
+      </c>
+      <c r="J50" s="2">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
-        <v>813.23555555555401</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1525.65438867185</v>
+      </c>
+      <c r="D51">
+        <v>1250</v>
+      </c>
+      <c r="E51">
+        <v>795</v>
+      </c>
+      <c r="F51">
+        <v>125</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51" s="2">
+        <v>100</v>
+      </c>
+      <c r="I51">
+        <v>59</v>
+      </c>
+      <c r="J51" s="2">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
-        <v>869.262222222221</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2288.48158300777</v>
+      </c>
+      <c r="D52">
+        <v>1500</v>
+      </c>
+      <c r="E52">
+        <v>1275</v>
+      </c>
+      <c r="F52">
+        <v>150</v>
+      </c>
+      <c r="G52">
+        <v>125</v>
+      </c>
+      <c r="H52" s="2">
+        <v>200</v>
+      </c>
+      <c r="I52">
+        <v>110</v>
+      </c>
+      <c r="J52" s="2">
+        <v>200</v>
+      </c>
+      <c r="K52">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
-        <v>925.28888888888696</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2402.9056621581499</v>
+      </c>
+      <c r="D53">
+        <v>1500</v>
+      </c>
+      <c r="E53">
+        <v>1285</v>
+      </c>
+      <c r="F53">
+        <v>150</v>
+      </c>
+      <c r="G53">
+        <v>125</v>
+      </c>
+      <c r="H53" s="2">
+        <v>200</v>
+      </c>
+      <c r="I53">
+        <v>111</v>
+      </c>
+      <c r="J53" s="2">
+        <v>200</v>
+      </c>
+      <c r="K53">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
-        <v>981.31555555555406</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2523.0509452660599</v>
+      </c>
+      <c r="D54">
+        <v>1500</v>
+      </c>
+      <c r="E54">
+        <v>1295</v>
+      </c>
+      <c r="F54">
+        <v>150</v>
+      </c>
+      <c r="G54">
+        <v>125</v>
+      </c>
+      <c r="H54" s="2">
+        <v>200</v>
+      </c>
+      <c r="I54">
+        <v>112</v>
+      </c>
+      <c r="J54" s="2">
+        <v>200</v>
+      </c>
+      <c r="K54">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
-        <v>1037.34222222222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2639.3820924022798</v>
+      </c>
+      <c r="D55">
+        <v>1500</v>
+      </c>
+      <c r="E55">
+        <v>1305</v>
+      </c>
+      <c r="F55">
+        <v>150</v>
+      </c>
+      <c r="G55">
+        <v>125</v>
+      </c>
+      <c r="H55" s="2">
+        <v>200</v>
+      </c>
+      <c r="I55">
+        <v>113</v>
+      </c>
+      <c r="J55" s="2">
+        <v>200</v>
+      </c>
+      <c r="K55">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
-        <v>1093.3688888888901</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2756.66677353143</v>
+      </c>
+      <c r="D56">
+        <v>1500</v>
+      </c>
+      <c r="E56">
+        <v>1315</v>
+      </c>
+      <c r="F56">
+        <v>150</v>
+      </c>
+      <c r="G56">
+        <v>125</v>
+      </c>
+      <c r="H56" s="2">
+        <v>200</v>
+      </c>
+      <c r="I56">
+        <v>114</v>
+      </c>
+      <c r="J56" s="2">
+        <v>200</v>
+      </c>
+      <c r="K56">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
-        <v>1149.3955555555499</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2873.9514546605701</v>
+      </c>
+      <c r="D57">
+        <v>1500</v>
+      </c>
+      <c r="E57">
+        <v>1325</v>
+      </c>
+      <c r="F57">
+        <v>150</v>
+      </c>
+      <c r="G57">
+        <v>125</v>
+      </c>
+      <c r="H57" s="2">
+        <v>200</v>
+      </c>
+      <c r="I57">
+        <v>115</v>
+      </c>
+      <c r="J57" s="2">
+        <v>200</v>
+      </c>
+      <c r="K57">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
-        <v>1205.4222222222199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2991.2361357897198</v>
+      </c>
+      <c r="D58">
+        <v>1500</v>
+      </c>
+      <c r="E58">
+        <v>1335</v>
+      </c>
+      <c r="F58">
+        <v>150</v>
+      </c>
+      <c r="G58">
+        <v>125</v>
+      </c>
+      <c r="H58" s="2">
+        <v>200</v>
+      </c>
+      <c r="I58">
+        <v>116</v>
+      </c>
+      <c r="J58" s="2">
+        <v>200</v>
+      </c>
+      <c r="K58">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
-        <v>1261.44888888889</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3108.52081691886</v>
+      </c>
+      <c r="D59">
+        <v>1500</v>
+      </c>
+      <c r="E59">
+        <v>1345</v>
+      </c>
+      <c r="F59">
+        <v>150</v>
+      </c>
+      <c r="G59">
+        <v>125</v>
+      </c>
+      <c r="H59" s="2">
+        <v>200</v>
+      </c>
+      <c r="I59">
+        <v>117</v>
+      </c>
+      <c r="J59" s="2">
+        <v>200</v>
+      </c>
+      <c r="K59">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
-        <v>1317.47555555555</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3225.8054980480101</v>
+      </c>
+      <c r="D60">
+        <v>1500</v>
+      </c>
+      <c r="E60">
+        <v>1355</v>
+      </c>
+      <c r="F60">
+        <v>150</v>
+      </c>
+      <c r="G60">
+        <v>125</v>
+      </c>
+      <c r="H60" s="2">
+        <v>200</v>
+      </c>
+      <c r="I60">
+        <v>118</v>
+      </c>
+      <c r="J60" s="2">
+        <v>200</v>
+      </c>
+      <c r="K60">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
-        <v>1373.5022222222201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>61</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3343.0901791771498</v>
+      </c>
+      <c r="D61">
+        <v>1500</v>
+      </c>
+      <c r="E61">
+        <v>1365</v>
+      </c>
+      <c r="F61">
+        <v>150</v>
+      </c>
+      <c r="G61">
+        <v>125</v>
+      </c>
+      <c r="H61" s="2">
+        <v>200</v>
+      </c>
+      <c r="I61">
+        <v>119</v>
+      </c>
+      <c r="J61" s="2">
+        <v>200</v>
+      </c>
+      <c r="K61">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
-        <v>1785.55288888888</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>62</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5683.2533046011504</v>
+      </c>
+      <c r="D62">
+        <v>1750</v>
+      </c>
+      <c r="E62">
+        <v>1525</v>
+      </c>
+      <c r="F62">
+        <v>175</v>
+      </c>
+      <c r="G62">
+        <v>150</v>
+      </c>
+      <c r="H62" s="2">
+        <v>300</v>
+      </c>
+      <c r="I62">
+        <v>210</v>
+      </c>
+      <c r="J62" s="2">
+        <v>300</v>
+      </c>
+      <c r="K62">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
-        <v>2321.2187555555502</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>63</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5967.4159698312096</v>
+      </c>
+      <c r="D63">
+        <v>1750</v>
+      </c>
+      <c r="E63">
+        <v>1535</v>
+      </c>
+      <c r="F63">
+        <v>175</v>
+      </c>
+      <c r="G63">
+        <v>150</v>
+      </c>
+      <c r="H63" s="2">
+        <v>300</v>
+      </c>
+      <c r="I63">
+        <v>211</v>
+      </c>
+      <c r="J63" s="2">
+        <v>300</v>
+      </c>
+      <c r="K63">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
-        <v>2774.4744888888899</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6265.7867683227696</v>
+      </c>
+      <c r="D64">
+        <v>1750</v>
+      </c>
+      <c r="E64">
+        <v>1545</v>
+      </c>
+      <c r="F64">
+        <v>175</v>
+      </c>
+      <c r="G64">
+        <v>150</v>
+      </c>
+      <c r="H64" s="2">
+        <v>300</v>
+      </c>
+      <c r="I64">
+        <v>212</v>
+      </c>
+      <c r="J64" s="2">
+        <v>300</v>
+      </c>
+      <c r="K64">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
-        <v>3248.3327555555502</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6554.6854779733303</v>
+      </c>
+      <c r="D65">
+        <v>1750</v>
+      </c>
+      <c r="E65">
+        <v>1555</v>
+      </c>
+      <c r="F65">
+        <v>175</v>
+      </c>
+      <c r="G65">
+        <v>150</v>
+      </c>
+      <c r="H65" s="2">
+        <v>300</v>
+      </c>
+      <c r="I65">
+        <v>213</v>
+      </c>
+      <c r="J65" s="2">
+        <v>300</v>
+      </c>
+      <c r="K65">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
-        <v>3722.19102222221</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>66</v>
+      </c>
+      <c r="C66" s="1">
+        <v>6845.9522098341404</v>
+      </c>
+      <c r="D66">
+        <v>1750</v>
+      </c>
+      <c r="E66">
+        <v>1565</v>
+      </c>
+      <c r="F66">
+        <v>175</v>
+      </c>
+      <c r="G66">
+        <v>150</v>
+      </c>
+      <c r="H66" s="2">
+        <v>300</v>
+      </c>
+      <c r="I66">
+        <v>214</v>
+      </c>
+      <c r="J66" s="2">
+        <v>300</v>
+      </c>
+      <c r="K66">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
-        <v>4196.0492888888703</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>67</v>
+      </c>
+      <c r="C67" s="1">
+        <v>7137.2189416949504</v>
+      </c>
+      <c r="D67">
+        <v>1750</v>
+      </c>
+      <c r="E67">
+        <v>1575</v>
+      </c>
+      <c r="F67">
+        <v>175</v>
+      </c>
+      <c r="G67">
+        <v>150</v>
+      </c>
+      <c r="H67" s="2">
+        <v>300</v>
+      </c>
+      <c r="I67">
+        <v>215</v>
+      </c>
+      <c r="J67" s="2">
+        <v>300</v>
+      </c>
+      <c r="K67">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
-        <v>4669.9075555555401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68" s="1">
+        <v>7428.4856735557596</v>
+      </c>
+      <c r="D68">
+        <v>1750</v>
+      </c>
+      <c r="E68">
+        <v>1585</v>
+      </c>
+      <c r="F68">
+        <v>175</v>
+      </c>
+      <c r="G68">
+        <v>150</v>
+      </c>
+      <c r="H68" s="2">
+        <v>300</v>
+      </c>
+      <c r="I68">
+        <v>216</v>
+      </c>
+      <c r="J68" s="2">
+        <v>300</v>
+      </c>
+      <c r="K68">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
-        <v>5143.7658222222099</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>69</v>
+      </c>
+      <c r="C69" s="1">
+        <v>7719.7524054165697</v>
+      </c>
+      <c r="D69">
+        <v>1750</v>
+      </c>
+      <c r="E69">
+        <v>1595</v>
+      </c>
+      <c r="F69">
+        <v>175</v>
+      </c>
+      <c r="G69">
+        <v>150</v>
+      </c>
+      <c r="H69" s="2">
+        <v>300</v>
+      </c>
+      <c r="I69">
+        <v>217</v>
+      </c>
+      <c r="J69" s="2">
+        <v>300</v>
+      </c>
+      <c r="K69">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
-        <v>5617.6240888888797</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>70</v>
+      </c>
+      <c r="C70" s="1">
+        <v>8011.0191372773797</v>
+      </c>
+      <c r="D70">
+        <v>1750</v>
+      </c>
+      <c r="E70">
+        <v>1605</v>
+      </c>
+      <c r="F70">
+        <v>175</v>
+      </c>
+      <c r="G70">
+        <v>150</v>
+      </c>
+      <c r="H70" s="2">
+        <v>300</v>
+      </c>
+      <c r="I70">
+        <v>218</v>
+      </c>
+      <c r="J70" s="2">
+        <v>300</v>
+      </c>
+      <c r="K70">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
-        <v>6091.4823555555304</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>71</v>
+      </c>
+      <c r="C71" s="1">
+        <v>8302.2858691381898</v>
+      </c>
+      <c r="D71">
+        <v>1750</v>
+      </c>
+      <c r="E71">
+        <v>1615</v>
+      </c>
+      <c r="F71">
+        <v>175</v>
+      </c>
+      <c r="G71">
+        <v>150</v>
+      </c>
+      <c r="H71" s="2">
+        <v>300</v>
+      </c>
+      <c r="I71">
+        <v>219</v>
+      </c>
+      <c r="J71" s="2">
+        <v>300</v>
+      </c>
+      <c r="K71">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
-        <v>6565.3406222222002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>72</v>
+      </c>
+      <c r="C72" s="1">
+        <v>8593.5526009990008</v>
+      </c>
+      <c r="D72">
+        <v>1750</v>
+      </c>
+      <c r="E72">
+        <v>1625</v>
+      </c>
+      <c r="F72">
+        <v>175</v>
+      </c>
+      <c r="G72">
+        <v>150</v>
+      </c>
+      <c r="H72" s="2">
+        <v>300</v>
+      </c>
+      <c r="I72">
+        <v>220</v>
+      </c>
+      <c r="J72" s="2">
+        <v>300</v>
+      </c>
+      <c r="K72">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
-        <v>7039.19888888887</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1">
+        <v>8884.8193328598099</v>
+      </c>
+      <c r="D73">
+        <v>1750</v>
+      </c>
+      <c r="E73">
+        <v>1635</v>
+      </c>
+      <c r="F73">
+        <v>175</v>
+      </c>
+      <c r="G73">
+        <v>150</v>
+      </c>
+      <c r="H73" s="2">
+        <v>300</v>
+      </c>
+      <c r="I73">
+        <v>221</v>
+      </c>
+      <c r="J73" s="2">
+        <v>300</v>
+      </c>
+      <c r="K73">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
-        <v>7513.0571555555398</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>74</v>
+      </c>
+      <c r="C74" s="1">
+        <v>9176.0860647206191</v>
+      </c>
+      <c r="D74">
+        <v>1750</v>
+      </c>
+      <c r="E74">
+        <v>1645</v>
+      </c>
+      <c r="F74">
+        <v>175</v>
+      </c>
+      <c r="G74">
+        <v>150</v>
+      </c>
+      <c r="H74" s="2">
+        <v>300</v>
+      </c>
+      <c r="I74">
+        <v>222</v>
+      </c>
+      <c r="J74" s="2">
+        <v>300</v>
+      </c>
+      <c r="K74">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
-        <v>7986.9154222221996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75" s="1">
+        <v>9467.3527965814192</v>
+      </c>
+      <c r="D75">
+        <v>1750</v>
+      </c>
+      <c r="E75">
+        <v>1655</v>
+      </c>
+      <c r="F75">
+        <v>175</v>
+      </c>
+      <c r="G75">
+        <v>150</v>
+      </c>
+      <c r="H75" s="2">
+        <v>300</v>
+      </c>
+      <c r="I75">
+        <v>223</v>
+      </c>
+      <c r="J75" s="2">
+        <v>300</v>
+      </c>
+      <c r="K75">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
-        <v>8460.7736888888594</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>76</v>
+      </c>
+      <c r="C76" s="1">
+        <v>9758.6195284422301</v>
+      </c>
+      <c r="D76">
+        <v>1750</v>
+      </c>
+      <c r="E76">
+        <v>1665</v>
+      </c>
+      <c r="F76">
+        <v>175</v>
+      </c>
+      <c r="G76">
+        <v>150</v>
+      </c>
+      <c r="H76" s="2">
+        <v>300</v>
+      </c>
+      <c r="I76">
+        <v>224</v>
+      </c>
+      <c r="J76" s="2">
+        <v>300</v>
+      </c>
+      <c r="K76">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
-        <v>8934.6319555555201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>77</v>
+      </c>
+      <c r="C77" s="1">
+        <v>10049.886260302999</v>
+      </c>
+      <c r="D77">
+        <v>1750</v>
+      </c>
+      <c r="E77">
+        <v>1675</v>
+      </c>
+      <c r="F77">
+        <v>175</v>
+      </c>
+      <c r="G77">
+        <v>150</v>
+      </c>
+      <c r="H77" s="2">
+        <v>300</v>
+      </c>
+      <c r="I77">
+        <v>225</v>
+      </c>
+      <c r="J77" s="2">
+        <v>300</v>
+      </c>
+      <c r="K77">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
-        <v>9408.4902222222008</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>78</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10341.152992163899</v>
+      </c>
+      <c r="D78">
+        <v>1750</v>
+      </c>
+      <c r="E78">
+        <v>1685</v>
+      </c>
+      <c r="F78">
+        <v>175</v>
+      </c>
+      <c r="G78">
+        <v>150</v>
+      </c>
+      <c r="H78" s="2">
+        <v>300</v>
+      </c>
+      <c r="I78">
+        <v>226</v>
+      </c>
+      <c r="J78" s="2">
+        <v>300</v>
+      </c>
+      <c r="K78">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
-        <v>9882.3484888888506</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>79</v>
+      </c>
+      <c r="C79" s="1">
+        <v>10632.419724024699</v>
+      </c>
+      <c r="D79">
+        <v>1750</v>
+      </c>
+      <c r="E79">
+        <v>1695</v>
+      </c>
+      <c r="F79">
+        <v>175</v>
+      </c>
+      <c r="G79">
+        <v>150</v>
+      </c>
+      <c r="H79" s="2">
+        <v>300</v>
+      </c>
+      <c r="I79">
+        <v>227</v>
+      </c>
+      <c r="J79" s="2">
+        <v>300</v>
+      </c>
+      <c r="K79">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
-        <v>10356.2067555555</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80" s="1">
+        <v>10923.6864558855</v>
+      </c>
+      <c r="D80">
+        <v>1750</v>
+      </c>
+      <c r="E80">
+        <v>1705</v>
+      </c>
+      <c r="F80">
+        <v>175</v>
+      </c>
+      <c r="G80">
+        <v>150</v>
+      </c>
+      <c r="H80" s="2">
+        <v>300</v>
+      </c>
+      <c r="I80">
+        <v>228</v>
+      </c>
+      <c r="J80" s="2">
+        <v>300</v>
+      </c>
+      <c r="K80">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
-        <v>10830.065022222199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>81</v>
+      </c>
+      <c r="C81" s="1">
+        <v>11214.9531877463</v>
+      </c>
+      <c r="D81">
+        <v>1750</v>
+      </c>
+      <c r="E81">
+        <v>1715</v>
+      </c>
+      <c r="F81">
+        <v>175</v>
+      </c>
+      <c r="G81">
+        <v>150</v>
+      </c>
+      <c r="H81" s="2">
+        <v>300</v>
+      </c>
+      <c r="I81">
+        <v>229</v>
+      </c>
+      <c r="J81" s="2">
+        <v>300</v>
+      </c>
+      <c r="K81">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
-        <v>15162.091031111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>82</v>
+      </c>
+      <c r="C82" s="1">
+        <v>19065.420419168699</v>
+      </c>
+      <c r="D82">
+        <v>2000</v>
+      </c>
+      <c r="E82">
+        <v>1775</v>
+      </c>
+      <c r="F82">
+        <v>200</v>
+      </c>
+      <c r="G82">
+        <v>175</v>
+      </c>
+      <c r="H82" s="2">
+        <v>400</v>
+      </c>
+      <c r="I82">
+        <v>310</v>
+      </c>
+      <c r="J82" s="2">
+        <v>400</v>
+      </c>
+      <c r="K82">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
-        <v>21226.927443555502</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>83</v>
+      </c>
+      <c r="C83" s="1">
+        <v>20018.691440127099</v>
+      </c>
+      <c r="D83">
+        <v>2000</v>
+      </c>
+      <c r="E83">
+        <v>1785</v>
+      </c>
+      <c r="F83">
+        <v>200</v>
+      </c>
+      <c r="G83">
+        <v>175</v>
+      </c>
+      <c r="H83" s="2">
+        <v>400</v>
+      </c>
+      <c r="I83">
+        <v>311</v>
+      </c>
+      <c r="J83" s="2">
+        <v>400</v>
+      </c>
+      <c r="K83">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
-        <v>26136.556920296302</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>84</v>
+      </c>
+      <c r="C84" s="1">
+        <v>21019.6260121335</v>
+      </c>
+      <c r="D84">
+        <v>2000</v>
+      </c>
+      <c r="E84">
+        <v>1795</v>
+      </c>
+      <c r="F84">
+        <v>200</v>
+      </c>
+      <c r="G84">
+        <v>175</v>
+      </c>
+      <c r="H84" s="2">
+        <v>400</v>
+      </c>
+      <c r="I84">
+        <v>312</v>
+      </c>
+      <c r="J84" s="2">
+        <v>400</v>
+      </c>
+      <c r="K84">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
-        <v>31334.988130962902</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>85</v>
+      </c>
+      <c r="C85" s="1">
+        <v>21988.7848834412</v>
+      </c>
+      <c r="D85">
+        <v>2000</v>
+      </c>
+      <c r="E85">
+        <v>1805</v>
+      </c>
+      <c r="F85">
+        <v>200</v>
+      </c>
+      <c r="G85">
+        <v>175</v>
+      </c>
+      <c r="H85" s="2">
+        <v>400</v>
+      </c>
+      <c r="I85">
+        <v>313</v>
+      </c>
+      <c r="J85" s="2">
+        <v>400</v>
+      </c>
+      <c r="K85">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
-        <v>36533.419341629597</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>86</v>
+      </c>
+      <c r="C86" s="1">
+        <v>22965.887679923599</v>
+      </c>
+      <c r="D86">
+        <v>2000</v>
+      </c>
+      <c r="E86">
+        <v>1815</v>
+      </c>
+      <c r="F86">
+        <v>200</v>
+      </c>
+      <c r="G86">
+        <v>175</v>
+      </c>
+      <c r="H86" s="2">
+        <v>400</v>
+      </c>
+      <c r="I86">
+        <v>314</v>
+      </c>
+      <c r="J86" s="2">
+        <v>400</v>
+      </c>
+      <c r="K86">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
-        <v>41731.850552296099</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87" s="1">
+        <v>23942.990476406001</v>
+      </c>
+      <c r="D87">
+        <v>2000</v>
+      </c>
+      <c r="E87">
+        <v>1825</v>
+      </c>
+      <c r="F87">
+        <v>200</v>
+      </c>
+      <c r="G87">
+        <v>175</v>
+      </c>
+      <c r="H87" s="2">
+        <v>400</v>
+      </c>
+      <c r="I87">
+        <v>315</v>
+      </c>
+      <c r="J87" s="2">
+        <v>400</v>
+      </c>
+      <c r="K87">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
-        <v>46930.281762962797</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>88</v>
+      </c>
+      <c r="C88" s="1">
+        <v>24920.0932728884</v>
+      </c>
+      <c r="D88">
+        <v>2000</v>
+      </c>
+      <c r="E88">
+        <v>1835</v>
+      </c>
+      <c r="F88">
+        <v>200</v>
+      </c>
+      <c r="G88">
+        <v>175</v>
+      </c>
+      <c r="H88" s="2">
+        <v>400</v>
+      </c>
+      <c r="I88">
+        <v>316</v>
+      </c>
+      <c r="J88" s="2">
+        <v>400</v>
+      </c>
+      <c r="K88">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
-        <v>52128.712973629503</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89" s="1">
+        <v>25897.196069370799</v>
+      </c>
+      <c r="D89">
+        <v>2000</v>
+      </c>
+      <c r="E89">
+        <v>1845</v>
+      </c>
+      <c r="F89">
+        <v>200</v>
+      </c>
+      <c r="G89">
+        <v>175</v>
+      </c>
+      <c r="H89" s="2">
+        <v>400</v>
+      </c>
+      <c r="I89">
+        <v>317</v>
+      </c>
+      <c r="J89" s="2">
+        <v>400</v>
+      </c>
+      <c r="K89">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1">
-        <v>57327.144184296201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>90</v>
+      </c>
+      <c r="C90" s="1">
+        <v>26874.298865853201</v>
+      </c>
+      <c r="D90">
+        <v>2000</v>
+      </c>
+      <c r="E90">
+        <v>1855</v>
+      </c>
+      <c r="F90">
+        <v>200</v>
+      </c>
+      <c r="G90">
+        <v>175</v>
+      </c>
+      <c r="H90" s="2">
+        <v>400</v>
+      </c>
+      <c r="I90">
+        <v>318</v>
+      </c>
+      <c r="J90" s="2">
+        <v>400</v>
+      </c>
+      <c r="K90">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1">
-        <v>62525.575394962703</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>91</v>
+      </c>
+      <c r="C91" s="1">
+        <v>27851.4016623356</v>
+      </c>
+      <c r="D91">
+        <v>2000</v>
+      </c>
+      <c r="E91">
+        <v>1865</v>
+      </c>
+      <c r="F91">
+        <v>200</v>
+      </c>
+      <c r="G91">
+        <v>175</v>
+      </c>
+      <c r="H91" s="2">
+        <v>400</v>
+      </c>
+      <c r="I91">
+        <v>319</v>
+      </c>
+      <c r="J91" s="2">
+        <v>400</v>
+      </c>
+      <c r="K91">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1">
-        <v>67724.006605629504</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>92</v>
+      </c>
+      <c r="C92" s="1">
+        <v>28828.504458817999</v>
+      </c>
+      <c r="D92">
+        <v>2000</v>
+      </c>
+      <c r="E92">
+        <v>1875</v>
+      </c>
+      <c r="F92">
+        <v>200</v>
+      </c>
+      <c r="G92">
+        <v>175</v>
+      </c>
+      <c r="H92" s="2">
+        <v>400</v>
+      </c>
+      <c r="I92">
+        <v>320</v>
+      </c>
+      <c r="J92" s="2">
+        <v>400</v>
+      </c>
+      <c r="K92">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1">
-        <v>72922.437816296006</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>93</v>
+      </c>
+      <c r="C93" s="1">
+        <v>29805.607255300401</v>
+      </c>
+      <c r="D93">
+        <v>2000</v>
+      </c>
+      <c r="E93">
+        <v>1885</v>
+      </c>
+      <c r="F93">
+        <v>200</v>
+      </c>
+      <c r="G93">
+        <v>175</v>
+      </c>
+      <c r="H93" s="2">
+        <v>400</v>
+      </c>
+      <c r="I93">
+        <v>321</v>
+      </c>
+      <c r="J93" s="2">
+        <v>400</v>
+      </c>
+      <c r="K93">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1">
-        <v>78120.869026962799</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>94</v>
+      </c>
+      <c r="C94" s="1">
+        <v>30782.7100517828</v>
+      </c>
+      <c r="D94">
+        <v>2000</v>
+      </c>
+      <c r="E94">
+        <v>1895</v>
+      </c>
+      <c r="F94">
+        <v>200</v>
+      </c>
+      <c r="G94">
+        <v>175</v>
+      </c>
+      <c r="H94" s="2">
+        <v>400</v>
+      </c>
+      <c r="I94">
+        <v>322</v>
+      </c>
+      <c r="J94" s="2">
+        <v>400</v>
+      </c>
+      <c r="K94">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1">
-        <v>83319.300237629301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>95</v>
+      </c>
+      <c r="C95" s="1">
+        <v>31759.812848265199</v>
+      </c>
+      <c r="D95">
+        <v>2000</v>
+      </c>
+      <c r="E95">
+        <v>1905</v>
+      </c>
+      <c r="F95">
+        <v>200</v>
+      </c>
+      <c r="G95">
+        <v>175</v>
+      </c>
+      <c r="H95" s="2">
+        <v>400</v>
+      </c>
+      <c r="I95">
+        <v>323</v>
+      </c>
+      <c r="J95" s="2">
+        <v>400</v>
+      </c>
+      <c r="K95">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1">
-        <v>88517.731448296094</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>96</v>
+      </c>
+      <c r="C96" s="1">
+        <v>32736.915644747602</v>
+      </c>
+      <c r="D96">
+        <v>2000</v>
+      </c>
+      <c r="E96">
+        <v>1915</v>
+      </c>
+      <c r="F96">
+        <v>200</v>
+      </c>
+      <c r="G96">
+        <v>175</v>
+      </c>
+      <c r="H96" s="2">
+        <v>400</v>
+      </c>
+      <c r="I96">
+        <v>324</v>
+      </c>
+      <c r="J96" s="2">
+        <v>400</v>
+      </c>
+      <c r="K96">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1">
-        <v>93716.162658962698</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>97</v>
+      </c>
+      <c r="C97" s="1">
+        <v>33714.01844123</v>
+      </c>
+      <c r="D97">
+        <v>2000</v>
+      </c>
+      <c r="E97">
+        <v>1925</v>
+      </c>
+      <c r="F97">
+        <v>200</v>
+      </c>
+      <c r="G97">
+        <v>175</v>
+      </c>
+      <c r="H97" s="2">
+        <v>400</v>
+      </c>
+      <c r="I97">
+        <v>325</v>
+      </c>
+      <c r="J97" s="2">
+        <v>400</v>
+      </c>
+      <c r="K97">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1">
-        <v>98914.593869629301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>98</v>
+      </c>
+      <c r="C98" s="1">
+        <v>34691.121237712403</v>
+      </c>
+      <c r="D98">
+        <v>2000</v>
+      </c>
+      <c r="E98">
+        <v>1935</v>
+      </c>
+      <c r="F98">
+        <v>200</v>
+      </c>
+      <c r="G98">
+        <v>175</v>
+      </c>
+      <c r="H98" s="2">
+        <v>400</v>
+      </c>
+      <c r="I98">
+        <v>326</v>
+      </c>
+      <c r="J98" s="2">
+        <v>400</v>
+      </c>
+      <c r="K98">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1">
-        <v>104113.02508029601</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>99</v>
+      </c>
+      <c r="C99" s="1">
+        <v>35668.224034194798</v>
+      </c>
+      <c r="D99">
+        <v>2000</v>
+      </c>
+      <c r="E99">
+        <v>1945</v>
+      </c>
+      <c r="F99">
+        <v>200</v>
+      </c>
+      <c r="G99">
+        <v>175</v>
+      </c>
+      <c r="H99" s="2">
+        <v>400</v>
+      </c>
+      <c r="I99">
+        <v>327</v>
+      </c>
+      <c r="J99" s="2">
+        <v>400</v>
+      </c>
+      <c r="K99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1">
-        <v>109311.456290963</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>100</v>
+      </c>
+      <c r="C100" s="1">
+        <v>36645.326830677201</v>
+      </c>
+      <c r="D100">
+        <v>2000</v>
+      </c>
+      <c r="E100">
+        <v>1955</v>
+      </c>
+      <c r="F100">
+        <v>200</v>
+      </c>
+      <c r="G100">
+        <v>175</v>
+      </c>
+      <c r="H100" s="2">
+        <v>400</v>
+      </c>
+      <c r="I100">
+        <v>328</v>
+      </c>
+      <c r="J100" s="2">
+        <v>400</v>
+      </c>
+      <c r="K100">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1">
-        <v>114509.887501629</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>101</v>
+      </c>
+      <c r="C101" s="1">
+        <v>389158</v>
+      </c>
+      <c r="D101">
+        <v>2000</v>
+      </c>
+      <c r="E101">
+        <v>1965</v>
+      </c>
+      <c r="F101">
+        <v>200</v>
+      </c>
+      <c r="G101">
+        <v>175</v>
+      </c>
+      <c r="H101" s="2">
+        <v>400</v>
+      </c>
+      <c r="I101">
+        <v>329</v>
+      </c>
+      <c r="J101" s="2">
+        <v>400</v>
+      </c>
+      <c r="K101">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="1">
-        <v>229019.77500325799</v>
+      <c r="B102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>2500</v>
+      </c>
+      <c r="E102">
+        <v>2500</v>
+      </c>
+      <c r="F102">
+        <v>250</v>
+      </c>
+      <c r="G102">
+        <v>250</v>
+      </c>
+      <c r="H102" s="2">
+        <v>500</v>
+      </c>
+      <c r="I102">
+        <v>410</v>
+      </c>
+      <c r="J102" s="2">
+        <v>500</v>
+      </c>
+      <c r="K102">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EBA83F-A8F6-4798-85C8-A567FED134E9}">
+  <dimension ref="A1:CX11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="96" width="9" style="4"/>
+    <col min="97" max="100" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="102" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="4">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="4">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="4">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="4">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="4">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="4">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="4">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="4">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="4">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="4">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="4">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="4">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="4">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="4">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="4">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="4">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="4">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="4">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="4">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="4">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="4">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="4">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="4">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="4">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="4">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="4">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="4">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="4">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="4">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="4">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="4">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="4">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="4">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="4">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="4">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="4">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="4">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="4">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="4">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="4">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="4">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="4">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="4">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="4">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="4">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="4">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="4">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="4">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="4">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="4">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="4">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="4">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="4">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="4">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="4">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="4">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="4">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="4">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="4">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="4">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4">
+        <v>18</v>
+      </c>
+      <c r="S2" s="4">
+        <v>19</v>
+      </c>
+      <c r="T2" s="4">
+        <v>20</v>
+      </c>
+      <c r="U2" s="4">
+        <v>21</v>
+      </c>
+      <c r="V2" s="4">
+        <v>22</v>
+      </c>
+      <c r="W2" s="4">
+        <v>23</v>
+      </c>
+      <c r="X2" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>35</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>40</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>41</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>43</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>44</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>46</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>47</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>48</v>
+      </c>
+      <c r="AW2" s="4">
+        <v>49</v>
+      </c>
+      <c r="AX2" s="4">
+        <v>50</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>51</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>52</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>53</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>54</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>55</v>
+      </c>
+      <c r="BD2" s="4">
+        <v>56</v>
+      </c>
+      <c r="BE2" s="4">
+        <v>57</v>
+      </c>
+      <c r="BF2" s="4">
+        <v>58</v>
+      </c>
+      <c r="BG2" s="4">
+        <v>59</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>60</v>
+      </c>
+      <c r="BI2" s="4">
+        <v>61</v>
+      </c>
+      <c r="BJ2" s="4">
+        <v>62</v>
+      </c>
+      <c r="BK2" s="4">
+        <v>63</v>
+      </c>
+      <c r="BL2" s="4">
+        <v>64</v>
+      </c>
+      <c r="BM2" s="4">
+        <v>65</v>
+      </c>
+      <c r="BN2" s="4">
+        <v>66</v>
+      </c>
+      <c r="BO2" s="4">
+        <v>67</v>
+      </c>
+      <c r="BP2" s="4">
+        <v>68</v>
+      </c>
+      <c r="BQ2" s="4">
+        <v>69</v>
+      </c>
+      <c r="BR2" s="4">
+        <v>70</v>
+      </c>
+      <c r="BS2" s="4">
+        <v>71</v>
+      </c>
+      <c r="BT2" s="4">
+        <v>72</v>
+      </c>
+      <c r="BU2" s="4">
+        <v>73</v>
+      </c>
+      <c r="BV2" s="4">
+        <v>74</v>
+      </c>
+      <c r="BW2" s="4">
+        <v>75</v>
+      </c>
+      <c r="BX2" s="4">
+        <v>76</v>
+      </c>
+      <c r="BY2" s="4">
+        <v>77</v>
+      </c>
+      <c r="BZ2" s="4">
+        <v>78</v>
+      </c>
+      <c r="CA2" s="4">
+        <v>79</v>
+      </c>
+      <c r="CB2" s="4">
+        <v>80</v>
+      </c>
+      <c r="CC2" s="4">
+        <v>81</v>
+      </c>
+      <c r="CD2" s="4">
+        <v>82</v>
+      </c>
+      <c r="CE2" s="4">
+        <v>83</v>
+      </c>
+      <c r="CF2" s="4">
+        <v>84</v>
+      </c>
+      <c r="CG2" s="4">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="4">
+        <v>86</v>
+      </c>
+      <c r="CI2" s="4">
+        <v>87</v>
+      </c>
+      <c r="CJ2" s="4">
+        <v>88</v>
+      </c>
+      <c r="CK2" s="4">
+        <v>89</v>
+      </c>
+      <c r="CL2" s="4">
+        <v>90</v>
+      </c>
+      <c r="CM2" s="4">
+        <v>91</v>
+      </c>
+      <c r="CN2" s="4">
+        <v>92</v>
+      </c>
+      <c r="CO2" s="4">
+        <v>93</v>
+      </c>
+      <c r="CP2" s="4">
+        <v>94</v>
+      </c>
+      <c r="CQ2" s="4">
+        <v>95</v>
+      </c>
+      <c r="CR2" s="4">
+        <v>96</v>
+      </c>
+      <c r="CS2" s="4">
+        <v>97</v>
+      </c>
+      <c r="CT2" s="4">
+        <v>98</v>
+      </c>
+      <c r="CU2" s="4">
+        <v>99</v>
+      </c>
+      <c r="CV2" s="4">
+        <v>100</v>
+      </c>
+      <c r="CW2" s="4">
+        <v>101</v>
+      </c>
+      <c r="CX2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>75</v>
+      </c>
+      <c r="C3" s="3">
+        <v>225</v>
+      </c>
+      <c r="D3" s="3">
+        <v>236.25</v>
+      </c>
+      <c r="E3" s="3">
+        <v>248.0625</v>
+      </c>
+      <c r="F3" s="3">
+        <v>259.5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>271.03125</v>
+      </c>
+      <c r="H3" s="3">
+        <v>282.5625</v>
+      </c>
+      <c r="I3" s="3">
+        <v>294.09375</v>
+      </c>
+      <c r="J3" s="3">
+        <v>305.625</v>
+      </c>
+      <c r="K3" s="3">
+        <v>317.15625</v>
+      </c>
+      <c r="L3" s="3">
+        <v>328.6875</v>
+      </c>
+      <c r="M3" s="3">
+        <v>340.21875</v>
+      </c>
+      <c r="N3" s="3">
+        <v>351.75</v>
+      </c>
+      <c r="O3" s="3">
+        <v>363.28125</v>
+      </c>
+      <c r="P3" s="3">
+        <v>374.8125</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>386.34375</v>
+      </c>
+      <c r="R3" s="3">
+        <v>397.875</v>
+      </c>
+      <c r="S3" s="3">
+        <v>409.40625</v>
+      </c>
+      <c r="T3" s="3">
+        <v>420.9375</v>
+      </c>
+      <c r="U3" s="3">
+        <v>432.46875</v>
+      </c>
+      <c r="V3" s="3">
+        <v>444</v>
+      </c>
+      <c r="W3" s="3">
+        <v>455.53125</v>
+      </c>
+      <c r="X3" s="3">
+        <v>467.0625</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>478.59375</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>490.125</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>501.65625</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>513.1875</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>524.71875</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>536.25</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>547.78125</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>559.3125</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>570.84375</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>582.375</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>593.90625</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>605.4375</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>616.96875</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>628.5</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>640.03125</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>651.5625</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>663.09375</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>1044.3726562500001</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>1096.5912890625</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>1151.4208535156199</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>1204.5097968749899</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>1258.0338955078</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>1311.5579941406099</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>1365.0820927734201</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>1418.60619140623</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>1472.1302900390399</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>1525.65438867185</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>2288.48158300777</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>2402.9056621581499</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>2523.0509452660599</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>2639.3820924022798</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>2756.66677353143</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>2873.9514546605701</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>2991.2361357897198</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>3108.52081691886</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>3225.8054980480101</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>3343.0901791771498</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>5683.2533046011504</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>5967.4159698312096</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>6265.7867683227696</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>6554.6854779733303</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>6845.9522098341404</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>7137.2189416949504</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>7428.4856735557596</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>7719.7524054165697</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>8011.0191372773797</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>8302.2858691381898</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>8593.5526009990008</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>8884.8193328598099</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>9176.0860647206191</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>9467.3527965814192</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>9758.6195284422301</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>10049.886260302999</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>10341.152992163899</v>
+      </c>
+      <c r="CA3" s="3">
+        <v>10632.419724024699</v>
+      </c>
+      <c r="CB3" s="3">
+        <v>10923.6864558855</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>11214.9531877463</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>19065.420419168699</v>
+      </c>
+      <c r="CE3" s="3">
+        <v>20018.691440127099</v>
+      </c>
+      <c r="CF3" s="3">
+        <v>21019.6260121335</v>
+      </c>
+      <c r="CG3" s="3">
+        <v>21988.7848834412</v>
+      </c>
+      <c r="CH3" s="3">
+        <v>22965.887679923599</v>
+      </c>
+      <c r="CI3" s="3">
+        <v>23942.990476406001</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>24920.0932728884</v>
+      </c>
+      <c r="CK3" s="3">
+        <v>25897.196069370799</v>
+      </c>
+      <c r="CL3" s="3">
+        <v>26874.298865853201</v>
+      </c>
+      <c r="CM3" s="3">
+        <v>27851.4016623356</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>28828.504458817999</v>
+      </c>
+      <c r="CO3" s="3">
+        <v>29805.607255300401</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>30782.7100517828</v>
+      </c>
+      <c r="CQ3" s="3">
+        <v>31759.812848265199</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>32736.915644747602</v>
+      </c>
+      <c r="CS3" s="3">
+        <v>33714.01844123</v>
+      </c>
+      <c r="CT3" s="3">
+        <v>34691.121237712403</v>
+      </c>
+      <c r="CU3" s="3">
+        <v>35668.224034194798</v>
+      </c>
+      <c r="CV3" s="3">
+        <v>36645.326830677201</v>
+      </c>
+      <c r="CW3" s="3">
+        <v>389158</v>
+      </c>
+      <c r="CX3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>500</v>
+      </c>
+      <c r="C4" s="4">
+        <v>500</v>
+      </c>
+      <c r="D4" s="4">
+        <v>500</v>
+      </c>
+      <c r="E4" s="4">
+        <v>500</v>
+      </c>
+      <c r="F4" s="4">
+        <v>500</v>
+      </c>
+      <c r="G4" s="4">
+        <v>500</v>
+      </c>
+      <c r="H4" s="4">
+        <v>500</v>
+      </c>
+      <c r="I4" s="4">
+        <v>500</v>
+      </c>
+      <c r="J4" s="4">
+        <v>500</v>
+      </c>
+      <c r="K4" s="4">
+        <v>500</v>
+      </c>
+      <c r="L4" s="4">
+        <v>750</v>
+      </c>
+      <c r="M4" s="4">
+        <v>750</v>
+      </c>
+      <c r="N4" s="4">
+        <v>750</v>
+      </c>
+      <c r="O4" s="4">
+        <v>750</v>
+      </c>
+      <c r="P4" s="4">
+        <v>750</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>750</v>
+      </c>
+      <c r="R4" s="4">
+        <v>750</v>
+      </c>
+      <c r="S4" s="4">
+        <v>750</v>
+      </c>
+      <c r="T4" s="4">
+        <v>750</v>
+      </c>
+      <c r="U4" s="4">
+        <v>750</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AY4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AZ4" s="4">
+        <v>1500</v>
+      </c>
+      <c r="BA4" s="4">
+        <v>1500</v>
+      </c>
+      <c r="BB4" s="4">
+        <v>1500</v>
+      </c>
+      <c r="BC4" s="4">
+        <v>1500</v>
+      </c>
+      <c r="BD4" s="4">
+        <v>1500</v>
+      </c>
+      <c r="BE4" s="4">
+        <v>1500</v>
+      </c>
+      <c r="BF4" s="4">
+        <v>1500</v>
+      </c>
+      <c r="BG4" s="4">
+        <v>1500</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>1500</v>
+      </c>
+      <c r="BI4" s="4">
+        <v>1500</v>
+      </c>
+      <c r="BJ4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BL4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BM4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BN4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BO4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BP4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BQ4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BR4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BS4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BT4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BU4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BV4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BW4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BX4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BY4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="BZ4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="CA4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="CB4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="CC4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="CD4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CE4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CF4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CG4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CH4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CI4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CJ4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CK4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CL4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CM4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CN4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CO4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CP4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CQ4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CR4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CS4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CT4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CU4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CV4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CW4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="CX4" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>250</v>
+      </c>
+      <c r="C5" s="4">
+        <v>260</v>
+      </c>
+      <c r="D5" s="4">
+        <v>270</v>
+      </c>
+      <c r="E5" s="4">
+        <v>280</v>
+      </c>
+      <c r="F5" s="4">
+        <v>290</v>
+      </c>
+      <c r="G5" s="4">
+        <v>300</v>
+      </c>
+      <c r="H5" s="4">
+        <v>310</v>
+      </c>
+      <c r="I5" s="4">
+        <v>320</v>
+      </c>
+      <c r="J5" s="4">
+        <v>330</v>
+      </c>
+      <c r="K5" s="4">
+        <v>340</v>
+      </c>
+      <c r="L5" s="4">
+        <v>365</v>
+      </c>
+      <c r="M5" s="4">
+        <v>375</v>
+      </c>
+      <c r="N5" s="4">
+        <v>385</v>
+      </c>
+      <c r="O5" s="4">
+        <v>395</v>
+      </c>
+      <c r="P5" s="4">
+        <v>405</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>415</v>
+      </c>
+      <c r="R5" s="4">
+        <v>425</v>
+      </c>
+      <c r="S5" s="4">
+        <v>435</v>
+      </c>
+      <c r="T5" s="4">
+        <v>445</v>
+      </c>
+      <c r="U5" s="4">
+        <v>455</v>
+      </c>
+      <c r="V5" s="4">
+        <v>490</v>
+      </c>
+      <c r="W5" s="4">
+        <v>500</v>
+      </c>
+      <c r="X5" s="4">
+        <v>510</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>520</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>530</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>540</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>550</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>560</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>570</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>580</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>605</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>615</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>625</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>635</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>645</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>655</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>665</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>675</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>685</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>695</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>705</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>715</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>725</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>735</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>745</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>755</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>765</v>
+      </c>
+      <c r="AW5" s="4">
+        <v>775</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>785</v>
+      </c>
+      <c r="AY5" s="4">
+        <v>795</v>
+      </c>
+      <c r="AZ5" s="4">
+        <v>1275</v>
+      </c>
+      <c r="BA5" s="4">
+        <v>1285</v>
+      </c>
+      <c r="BB5" s="4">
+        <v>1295</v>
+      </c>
+      <c r="BC5" s="4">
+        <v>1305</v>
+      </c>
+      <c r="BD5" s="4">
+        <v>1315</v>
+      </c>
+      <c r="BE5" s="4">
+        <v>1325</v>
+      </c>
+      <c r="BF5" s="4">
+        <v>1335</v>
+      </c>
+      <c r="BG5" s="4">
+        <v>1345</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>1355</v>
+      </c>
+      <c r="BI5" s="4">
+        <v>1365</v>
+      </c>
+      <c r="BJ5" s="4">
+        <v>1525</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>1535</v>
+      </c>
+      <c r="BL5" s="4">
+        <v>1545</v>
+      </c>
+      <c r="BM5" s="4">
+        <v>1555</v>
+      </c>
+      <c r="BN5" s="4">
+        <v>1565</v>
+      </c>
+      <c r="BO5" s="4">
+        <v>1575</v>
+      </c>
+      <c r="BP5" s="4">
+        <v>1585</v>
+      </c>
+      <c r="BQ5" s="4">
+        <v>1595</v>
+      </c>
+      <c r="BR5" s="4">
+        <v>1605</v>
+      </c>
+      <c r="BS5" s="4">
+        <v>1615</v>
+      </c>
+      <c r="BT5" s="4">
+        <v>1625</v>
+      </c>
+      <c r="BU5" s="4">
+        <v>1635</v>
+      </c>
+      <c r="BV5" s="4">
+        <v>1645</v>
+      </c>
+      <c r="BW5" s="4">
+        <v>1655</v>
+      </c>
+      <c r="BX5" s="4">
+        <v>1665</v>
+      </c>
+      <c r="BY5" s="4">
+        <v>1675</v>
+      </c>
+      <c r="BZ5" s="4">
+        <v>1685</v>
+      </c>
+      <c r="CA5" s="4">
+        <v>1695</v>
+      </c>
+      <c r="CB5" s="4">
+        <v>1705</v>
+      </c>
+      <c r="CC5" s="4">
+        <v>1715</v>
+      </c>
+      <c r="CD5" s="4">
+        <v>1775</v>
+      </c>
+      <c r="CE5" s="4">
+        <v>1785</v>
+      </c>
+      <c r="CF5" s="4">
+        <v>1795</v>
+      </c>
+      <c r="CG5" s="4">
+        <v>1805</v>
+      </c>
+      <c r="CH5" s="4">
+        <v>1815</v>
+      </c>
+      <c r="CI5" s="4">
+        <v>1825</v>
+      </c>
+      <c r="CJ5" s="4">
+        <v>1835</v>
+      </c>
+      <c r="CK5" s="4">
+        <v>1845</v>
+      </c>
+      <c r="CL5" s="4">
+        <v>1855</v>
+      </c>
+      <c r="CM5" s="4">
+        <v>1865</v>
+      </c>
+      <c r="CN5" s="4">
+        <v>1875</v>
+      </c>
+      <c r="CO5" s="4">
+        <v>1885</v>
+      </c>
+      <c r="CP5" s="4">
+        <v>1895</v>
+      </c>
+      <c r="CQ5" s="4">
+        <v>1905</v>
+      </c>
+      <c r="CR5" s="4">
+        <v>1915</v>
+      </c>
+      <c r="CS5" s="4">
+        <v>1925</v>
+      </c>
+      <c r="CT5" s="4">
+        <v>1935</v>
+      </c>
+      <c r="CU5" s="4">
+        <v>1945</v>
+      </c>
+      <c r="CV5" s="4">
+        <v>1955</v>
+      </c>
+      <c r="CW5" s="4">
+        <v>1965</v>
+      </c>
+      <c r="CX5" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4">
+        <v>50</v>
+      </c>
+      <c r="I6" s="4">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4">
+        <v>50</v>
+      </c>
+      <c r="K6" s="4">
+        <v>50</v>
+      </c>
+      <c r="L6" s="4">
+        <v>75</v>
+      </c>
+      <c r="M6" s="4">
+        <v>75</v>
+      </c>
+      <c r="N6" s="4">
+        <v>75</v>
+      </c>
+      <c r="O6" s="4">
+        <v>75</v>
+      </c>
+      <c r="P6" s="4">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>75</v>
+      </c>
+      <c r="R6" s="4">
+        <v>75</v>
+      </c>
+      <c r="S6" s="4">
+        <v>75</v>
+      </c>
+      <c r="T6" s="4">
+        <v>75</v>
+      </c>
+      <c r="U6" s="4">
+        <v>75</v>
+      </c>
+      <c r="V6" s="4">
+        <v>100</v>
+      </c>
+      <c r="W6" s="4">
+        <v>100</v>
+      </c>
+      <c r="X6" s="4">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>100</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>100</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>100</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>100</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>125</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>150</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>150</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>150</v>
+      </c>
+      <c r="BC6" s="4">
+        <v>150</v>
+      </c>
+      <c r="BD6" s="4">
+        <v>150</v>
+      </c>
+      <c r="BE6" s="4">
+        <v>150</v>
+      </c>
+      <c r="BF6" s="4">
+        <v>150</v>
+      </c>
+      <c r="BG6" s="4">
+        <v>150</v>
+      </c>
+      <c r="BH6" s="4">
+        <v>150</v>
+      </c>
+      <c r="BI6" s="4">
+        <v>150</v>
+      </c>
+      <c r="BJ6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BK6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BL6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BM6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BN6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BO6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BP6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BQ6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BR6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BS6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BT6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BU6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BV6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BW6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BX6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BY6" s="4">
+        <v>175</v>
+      </c>
+      <c r="BZ6" s="4">
+        <v>175</v>
+      </c>
+      <c r="CA6" s="4">
+        <v>175</v>
+      </c>
+      <c r="CB6" s="4">
+        <v>175</v>
+      </c>
+      <c r="CC6" s="4">
+        <v>175</v>
+      </c>
+      <c r="CD6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CE6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CF6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CG6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CH6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CI6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CJ6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CK6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CL6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CM6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CN6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CO6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CP6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CQ6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CR6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CS6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CT6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CU6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CV6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CW6" s="4">
+        <v>200</v>
+      </c>
+      <c r="CX6" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4">
+        <v>50</v>
+      </c>
+      <c r="I7" s="4">
+        <v>50</v>
+      </c>
+      <c r="J7" s="4">
+        <v>50</v>
+      </c>
+      <c r="K7" s="4">
+        <v>50</v>
+      </c>
+      <c r="L7" s="4">
+        <v>50</v>
+      </c>
+      <c r="M7" s="4">
+        <v>50</v>
+      </c>
+      <c r="N7" s="4">
+        <v>50</v>
+      </c>
+      <c r="O7" s="4">
+        <v>50</v>
+      </c>
+      <c r="P7" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>50</v>
+      </c>
+      <c r="R7" s="4">
+        <v>50</v>
+      </c>
+      <c r="S7" s="4">
+        <v>50</v>
+      </c>
+      <c r="T7" s="4">
+        <v>50</v>
+      </c>
+      <c r="U7" s="4">
+        <v>50</v>
+      </c>
+      <c r="V7" s="4">
+        <v>50</v>
+      </c>
+      <c r="W7" s="4">
+        <v>50</v>
+      </c>
+      <c r="X7" s="4">
+        <v>50</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>50</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AZ7" s="4">
+        <v>125</v>
+      </c>
+      <c r="BA7" s="4">
+        <v>125</v>
+      </c>
+      <c r="BB7" s="4">
+        <v>125</v>
+      </c>
+      <c r="BC7" s="4">
+        <v>125</v>
+      </c>
+      <c r="BD7" s="4">
+        <v>125</v>
+      </c>
+      <c r="BE7" s="4">
+        <v>125</v>
+      </c>
+      <c r="BF7" s="4">
+        <v>125</v>
+      </c>
+      <c r="BG7" s="4">
+        <v>125</v>
+      </c>
+      <c r="BH7" s="4">
+        <v>125</v>
+      </c>
+      <c r="BI7" s="4">
+        <v>125</v>
+      </c>
+      <c r="BJ7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BL7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BM7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BN7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BO7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BP7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BQ7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BR7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BS7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BT7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BU7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BV7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BW7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BX7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BY7" s="4">
+        <v>150</v>
+      </c>
+      <c r="BZ7" s="4">
+        <v>150</v>
+      </c>
+      <c r="CA7" s="4">
+        <v>150</v>
+      </c>
+      <c r="CB7" s="4">
+        <v>150</v>
+      </c>
+      <c r="CC7" s="4">
+        <v>150</v>
+      </c>
+      <c r="CD7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CE7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CF7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CG7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CH7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CI7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CJ7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CK7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CL7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CM7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CN7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CO7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CP7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CQ7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CR7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CS7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CT7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CU7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CV7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CW7" s="4">
+        <v>175</v>
+      </c>
+      <c r="CX7" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>55</v>
+      </c>
+      <c r="C8" s="8">
+        <v>55</v>
+      </c>
+      <c r="D8" s="8">
+        <v>55</v>
+      </c>
+      <c r="E8" s="8">
+        <v>55</v>
+      </c>
+      <c r="F8" s="8">
+        <v>55</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55</v>
+      </c>
+      <c r="H8" s="8">
+        <v>55</v>
+      </c>
+      <c r="I8" s="8">
+        <v>55</v>
+      </c>
+      <c r="J8" s="8">
+        <v>55</v>
+      </c>
+      <c r="K8" s="8">
+        <v>55</v>
+      </c>
+      <c r="L8" s="8">
+        <v>70</v>
+      </c>
+      <c r="M8" s="8">
+        <v>70</v>
+      </c>
+      <c r="N8" s="8">
+        <v>70</v>
+      </c>
+      <c r="O8" s="8">
+        <v>70</v>
+      </c>
+      <c r="P8" s="8">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>70</v>
+      </c>
+      <c r="R8" s="8">
+        <v>70</v>
+      </c>
+      <c r="S8" s="8">
+        <v>70</v>
+      </c>
+      <c r="T8" s="8">
+        <v>70</v>
+      </c>
+      <c r="U8" s="8">
+        <v>70</v>
+      </c>
+      <c r="V8" s="8">
+        <v>85</v>
+      </c>
+      <c r="W8" s="8">
+        <v>85</v>
+      </c>
+      <c r="X8" s="8">
+        <v>85</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>85</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>85</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>85</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>85</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>85</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>85</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>85</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AT8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AU8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AV8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AW8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AX8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AY8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AZ8" s="8">
+        <v>200</v>
+      </c>
+      <c r="BA8" s="8">
+        <v>200</v>
+      </c>
+      <c r="BB8" s="8">
+        <v>200</v>
+      </c>
+      <c r="BC8" s="8">
+        <v>200</v>
+      </c>
+      <c r="BD8" s="8">
+        <v>200</v>
+      </c>
+      <c r="BE8" s="8">
+        <v>200</v>
+      </c>
+      <c r="BF8" s="8">
+        <v>200</v>
+      </c>
+      <c r="BG8" s="8">
+        <v>200</v>
+      </c>
+      <c r="BH8" s="8">
+        <v>200</v>
+      </c>
+      <c r="BI8" s="8">
+        <v>200</v>
+      </c>
+      <c r="BJ8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BK8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BL8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BM8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BN8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BO8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BP8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BQ8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BR8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BS8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BT8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BU8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BV8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BW8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BX8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BY8" s="8">
+        <v>300</v>
+      </c>
+      <c r="BZ8" s="8">
+        <v>300</v>
+      </c>
+      <c r="CA8" s="8">
+        <v>300</v>
+      </c>
+      <c r="CB8" s="8">
+        <v>300</v>
+      </c>
+      <c r="CC8" s="8">
+        <v>300</v>
+      </c>
+      <c r="CD8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CE8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CF8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CG8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CH8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CI8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CJ8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CK8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CL8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CM8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CN8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CO8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CP8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CQ8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CR8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CS8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CT8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CU8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CV8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CW8" s="8">
+        <v>400</v>
+      </c>
+      <c r="CX8" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4">
+        <v>16</v>
+      </c>
+      <c r="I9" s="4">
+        <v>17</v>
+      </c>
+      <c r="J9" s="4">
+        <v>18</v>
+      </c>
+      <c r="K9" s="4">
+        <v>19</v>
+      </c>
+      <c r="L9" s="4">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4">
+        <v>21</v>
+      </c>
+      <c r="N9" s="4">
+        <v>22</v>
+      </c>
+      <c r="O9" s="4">
+        <v>23</v>
+      </c>
+      <c r="P9" s="4">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>25</v>
+      </c>
+      <c r="R9" s="4">
+        <v>26</v>
+      </c>
+      <c r="S9" s="4">
+        <v>27</v>
+      </c>
+      <c r="T9" s="4">
+        <v>28</v>
+      </c>
+      <c r="U9" s="4">
+        <v>29</v>
+      </c>
+      <c r="V9" s="4">
+        <v>30</v>
+      </c>
+      <c r="W9" s="4">
+        <v>31</v>
+      </c>
+      <c r="X9" s="4">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>35</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>36</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>37</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>38</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>39</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>40</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>41</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>42</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>43</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>44</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>45</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>46</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>47</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>48</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>49</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>50</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>51</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>52</v>
+      </c>
+      <c r="AS9" s="4">
+        <v>53</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>54</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>55</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>56</v>
+      </c>
+      <c r="AW9" s="4">
+        <v>57</v>
+      </c>
+      <c r="AX9" s="4">
+        <v>58</v>
+      </c>
+      <c r="AY9" s="4">
+        <v>59</v>
+      </c>
+      <c r="AZ9" s="4">
+        <v>110</v>
+      </c>
+      <c r="BA9" s="4">
+        <v>111</v>
+      </c>
+      <c r="BB9" s="4">
+        <v>112</v>
+      </c>
+      <c r="BC9" s="4">
+        <v>113</v>
+      </c>
+      <c r="BD9" s="4">
+        <v>114</v>
+      </c>
+      <c r="BE9" s="4">
+        <v>115</v>
+      </c>
+      <c r="BF9" s="4">
+        <v>116</v>
+      </c>
+      <c r="BG9" s="4">
+        <v>117</v>
+      </c>
+      <c r="BH9" s="4">
+        <v>118</v>
+      </c>
+      <c r="BI9" s="4">
+        <v>119</v>
+      </c>
+      <c r="BJ9" s="4">
+        <v>210</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>211</v>
+      </c>
+      <c r="BL9" s="4">
+        <v>212</v>
+      </c>
+      <c r="BM9" s="4">
+        <v>213</v>
+      </c>
+      <c r="BN9" s="4">
+        <v>214</v>
+      </c>
+      <c r="BO9" s="4">
+        <v>215</v>
+      </c>
+      <c r="BP9" s="4">
+        <v>216</v>
+      </c>
+      <c r="BQ9" s="4">
+        <v>217</v>
+      </c>
+      <c r="BR9" s="4">
+        <v>218</v>
+      </c>
+      <c r="BS9" s="4">
+        <v>219</v>
+      </c>
+      <c r="BT9" s="4">
+        <v>220</v>
+      </c>
+      <c r="BU9" s="4">
+        <v>221</v>
+      </c>
+      <c r="BV9" s="4">
+        <v>222</v>
+      </c>
+      <c r="BW9" s="4">
+        <v>223</v>
+      </c>
+      <c r="BX9" s="4">
+        <v>224</v>
+      </c>
+      <c r="BY9" s="4">
+        <v>225</v>
+      </c>
+      <c r="BZ9" s="4">
+        <v>226</v>
+      </c>
+      <c r="CA9" s="4">
+        <v>227</v>
+      </c>
+      <c r="CB9" s="4">
+        <v>228</v>
+      </c>
+      <c r="CC9" s="4">
+        <v>229</v>
+      </c>
+      <c r="CD9" s="4">
+        <v>310</v>
+      </c>
+      <c r="CE9" s="4">
+        <v>311</v>
+      </c>
+      <c r="CF9" s="4">
+        <v>312</v>
+      </c>
+      <c r="CG9" s="4">
+        <v>313</v>
+      </c>
+      <c r="CH9" s="4">
+        <v>314</v>
+      </c>
+      <c r="CI9" s="4">
+        <v>315</v>
+      </c>
+      <c r="CJ9" s="4">
+        <v>316</v>
+      </c>
+      <c r="CK9" s="4">
+        <v>317</v>
+      </c>
+      <c r="CL9" s="4">
+        <v>318</v>
+      </c>
+      <c r="CM9" s="4">
+        <v>319</v>
+      </c>
+      <c r="CN9" s="4">
+        <v>320</v>
+      </c>
+      <c r="CO9" s="4">
+        <v>321</v>
+      </c>
+      <c r="CP9" s="4">
+        <v>322</v>
+      </c>
+      <c r="CQ9" s="4">
+        <v>323</v>
+      </c>
+      <c r="CR9" s="4">
+        <v>324</v>
+      </c>
+      <c r="CS9" s="4">
+        <v>325</v>
+      </c>
+      <c r="CT9" s="4">
+        <v>326</v>
+      </c>
+      <c r="CU9" s="4">
+        <v>327</v>
+      </c>
+      <c r="CV9" s="4">
+        <v>328</v>
+      </c>
+      <c r="CW9" s="4">
+        <v>329</v>
+      </c>
+      <c r="CX9" s="4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>55</v>
+      </c>
+      <c r="C10" s="8">
+        <v>55</v>
+      </c>
+      <c r="D10" s="8">
+        <v>55</v>
+      </c>
+      <c r="E10" s="8">
+        <v>55</v>
+      </c>
+      <c r="F10" s="8">
+        <v>55</v>
+      </c>
+      <c r="G10" s="8">
+        <v>55</v>
+      </c>
+      <c r="H10" s="8">
+        <v>55</v>
+      </c>
+      <c r="I10" s="8">
+        <v>55</v>
+      </c>
+      <c r="J10" s="8">
+        <v>55</v>
+      </c>
+      <c r="K10" s="8">
+        <v>55</v>
+      </c>
+      <c r="L10" s="8">
+        <v>70</v>
+      </c>
+      <c r="M10" s="8">
+        <v>70</v>
+      </c>
+      <c r="N10" s="8">
+        <v>70</v>
+      </c>
+      <c r="O10" s="8">
+        <v>70</v>
+      </c>
+      <c r="P10" s="8">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>70</v>
+      </c>
+      <c r="R10" s="8">
+        <v>70</v>
+      </c>
+      <c r="S10" s="8">
+        <v>70</v>
+      </c>
+      <c r="T10" s="8">
+        <v>70</v>
+      </c>
+      <c r="U10" s="8">
+        <v>70</v>
+      </c>
+      <c r="V10" s="8">
+        <v>85</v>
+      </c>
+      <c r="W10" s="8">
+        <v>85</v>
+      </c>
+      <c r="X10" s="8">
+        <v>85</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>85</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>85</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>85</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>85</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>85</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>85</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>85</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AO10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AS10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AT10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AU10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AV10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AW10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AX10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AY10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AZ10" s="8">
+        <v>200</v>
+      </c>
+      <c r="BA10" s="8">
+        <v>200</v>
+      </c>
+      <c r="BB10" s="8">
+        <v>200</v>
+      </c>
+      <c r="BC10" s="8">
+        <v>200</v>
+      </c>
+      <c r="BD10" s="8">
+        <v>200</v>
+      </c>
+      <c r="BE10" s="8">
+        <v>200</v>
+      </c>
+      <c r="BF10" s="8">
+        <v>200</v>
+      </c>
+      <c r="BG10" s="8">
+        <v>200</v>
+      </c>
+      <c r="BH10" s="8">
+        <v>200</v>
+      </c>
+      <c r="BI10" s="8">
+        <v>200</v>
+      </c>
+      <c r="BJ10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BK10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BL10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BM10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BN10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BO10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BP10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BQ10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BR10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BS10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BT10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BU10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BV10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BW10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BX10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BY10" s="8">
+        <v>300</v>
+      </c>
+      <c r="BZ10" s="8">
+        <v>300</v>
+      </c>
+      <c r="CA10" s="8">
+        <v>300</v>
+      </c>
+      <c r="CB10" s="8">
+        <v>300</v>
+      </c>
+      <c r="CC10" s="8">
+        <v>300</v>
+      </c>
+      <c r="CD10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CE10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CF10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CG10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CH10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CI10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CJ10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CK10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CL10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CM10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CN10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CO10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CP10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CQ10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CR10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CS10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CT10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CU10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CV10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CW10" s="8">
+        <v>400</v>
+      </c>
+      <c r="CX10" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4">
+        <v>16</v>
+      </c>
+      <c r="I11" s="4">
+        <v>17</v>
+      </c>
+      <c r="J11" s="4">
+        <v>18</v>
+      </c>
+      <c r="K11" s="4">
+        <v>19</v>
+      </c>
+      <c r="L11" s="4">
+        <v>20</v>
+      </c>
+      <c r="M11" s="4">
+        <v>21</v>
+      </c>
+      <c r="N11" s="4">
+        <v>22</v>
+      </c>
+      <c r="O11" s="4">
+        <v>23</v>
+      </c>
+      <c r="P11" s="4">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>25</v>
+      </c>
+      <c r="R11" s="4">
+        <v>26</v>
+      </c>
+      <c r="S11" s="4">
+        <v>27</v>
+      </c>
+      <c r="T11" s="4">
+        <v>28</v>
+      </c>
+      <c r="U11" s="4">
+        <v>29</v>
+      </c>
+      <c r="V11" s="4">
+        <v>30</v>
+      </c>
+      <c r="W11" s="4">
+        <v>31</v>
+      </c>
+      <c r="X11" s="4">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>34</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>35</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>36</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>37</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>38</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>39</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>40</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>41</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>42</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>43</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>44</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>45</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>46</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>47</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>48</v>
+      </c>
+      <c r="AO11" s="4">
+        <v>49</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>50</v>
+      </c>
+      <c r="AQ11" s="4">
+        <v>51</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>52</v>
+      </c>
+      <c r="AS11" s="4">
+        <v>53</v>
+      </c>
+      <c r="AT11" s="4">
+        <v>54</v>
+      </c>
+      <c r="AU11" s="4">
+        <v>55</v>
+      </c>
+      <c r="AV11" s="4">
+        <v>56</v>
+      </c>
+      <c r="AW11" s="4">
+        <v>57</v>
+      </c>
+      <c r="AX11" s="4">
+        <v>58</v>
+      </c>
+      <c r="AY11" s="4">
+        <v>59</v>
+      </c>
+      <c r="AZ11" s="4">
+        <v>110</v>
+      </c>
+      <c r="BA11" s="4">
+        <v>111</v>
+      </c>
+      <c r="BB11" s="4">
+        <v>112</v>
+      </c>
+      <c r="BC11" s="4">
+        <v>113</v>
+      </c>
+      <c r="BD11" s="4">
+        <v>114</v>
+      </c>
+      <c r="BE11" s="4">
+        <v>115</v>
+      </c>
+      <c r="BF11" s="4">
+        <v>116</v>
+      </c>
+      <c r="BG11" s="4">
+        <v>117</v>
+      </c>
+      <c r="BH11" s="4">
+        <v>118</v>
+      </c>
+      <c r="BI11" s="4">
+        <v>119</v>
+      </c>
+      <c r="BJ11" s="4">
+        <v>210</v>
+      </c>
+      <c r="BK11" s="4">
+        <v>211</v>
+      </c>
+      <c r="BL11" s="4">
+        <v>212</v>
+      </c>
+      <c r="BM11" s="4">
+        <v>213</v>
+      </c>
+      <c r="BN11" s="4">
+        <v>214</v>
+      </c>
+      <c r="BO11" s="4">
+        <v>215</v>
+      </c>
+      <c r="BP11" s="4">
+        <v>216</v>
+      </c>
+      <c r="BQ11" s="4">
+        <v>217</v>
+      </c>
+      <c r="BR11" s="4">
+        <v>218</v>
+      </c>
+      <c r="BS11" s="4">
+        <v>219</v>
+      </c>
+      <c r="BT11" s="4">
+        <v>220</v>
+      </c>
+      <c r="BU11" s="4">
+        <v>221</v>
+      </c>
+      <c r="BV11" s="4">
+        <v>222</v>
+      </c>
+      <c r="BW11" s="4">
+        <v>223</v>
+      </c>
+      <c r="BX11" s="4">
+        <v>224</v>
+      </c>
+      <c r="BY11" s="4">
+        <v>225</v>
+      </c>
+      <c r="BZ11" s="4">
+        <v>226</v>
+      </c>
+      <c r="CA11" s="4">
+        <v>227</v>
+      </c>
+      <c r="CB11" s="4">
+        <v>228</v>
+      </c>
+      <c r="CC11" s="4">
+        <v>229</v>
+      </c>
+      <c r="CD11" s="4">
+        <v>310</v>
+      </c>
+      <c r="CE11" s="4">
+        <v>311</v>
+      </c>
+      <c r="CF11" s="4">
+        <v>312</v>
+      </c>
+      <c r="CG11" s="4">
+        <v>313</v>
+      </c>
+      <c r="CH11" s="4">
+        <v>314</v>
+      </c>
+      <c r="CI11" s="4">
+        <v>315</v>
+      </c>
+      <c r="CJ11" s="4">
+        <v>316</v>
+      </c>
+      <c r="CK11" s="4">
+        <v>317</v>
+      </c>
+      <c r="CL11" s="4">
+        <v>318</v>
+      </c>
+      <c r="CM11" s="4">
+        <v>319</v>
+      </c>
+      <c r="CN11" s="4">
+        <v>320</v>
+      </c>
+      <c r="CO11" s="4">
+        <v>321</v>
+      </c>
+      <c r="CP11" s="4">
+        <v>322</v>
+      </c>
+      <c r="CQ11" s="4">
+        <v>323</v>
+      </c>
+      <c r="CR11" s="4">
+        <v>324</v>
+      </c>
+      <c r="CS11" s="4">
+        <v>325</v>
+      </c>
+      <c r="CT11" s="4">
+        <v>326</v>
+      </c>
+      <c r="CU11" s="4">
+        <v>327</v>
+      </c>
+      <c r="CV11" s="4">
+        <v>328</v>
+      </c>
+      <c r="CW11" s="4">
+        <v>329</v>
+      </c>
+      <c r="CX11" s="4">
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/기획/방랑엽사전/능력치&경험치 테이블.xlsx
+++ b/기획/방랑엽사전/능력치&경험치 테이블.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\방랑엽사전\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9454B6D4-CEE4-4948-AF4D-8AEA1661C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3700F0FB-D6D4-4AD3-A999-B7E7C1ABE0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{66256CB9-C889-4633-A23D-D48C9A3411D3}"/>
   </bookViews>
@@ -16,6 +16,10 @@
     <sheet name="메인" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$3:$E$103</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$3:$E$103</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -785,39 +789,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -833,6 +804,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -847,6 +824,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2020,8 +2024,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
@@ -2406,35 +2410,35 @@
       <c r="B2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="33">
         <v>1</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34">
         <v>2</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44">
+      <c r="G2" s="34"/>
+      <c r="H2" s="35">
         <v>3</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45">
+      <c r="I2" s="35"/>
+      <c r="J2" s="36">
         <v>4</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46">
+      <c r="K2" s="36"/>
+      <c r="L2" s="37">
         <v>5</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="38">
+      <c r="M2" s="37"/>
+      <c r="N2" s="27">
         <v>6</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="37">
+      <c r="O2" s="27"/>
+      <c r="P2" s="26">
         <v>7</v>
       </c>
-      <c r="Q2" s="37"/>
+      <c r="Q2" s="26"/>
       <c r="R2" s="17">
         <v>8</v>
       </c>
@@ -2510,24 +2514,24 @@
       <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="30"/>
       <c r="S4" s="25"/>
       <c r="AG4"/>
     </row>
@@ -2598,35 +2602,35 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>500</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31">
         <v>750</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31">
         <v>1000</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32">
+      <c r="I6" s="31"/>
+      <c r="J6" s="31">
         <v>1250</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32">
+      <c r="K6" s="31"/>
+      <c r="L6" s="31">
         <v>1500</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32">
+      <c r="M6" s="31"/>
+      <c r="N6" s="31">
         <v>1750</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32">
+      <c r="O6" s="31"/>
+      <c r="P6" s="31">
         <v>2000</v>
       </c>
-      <c r="Q6" s="32"/>
+      <c r="Q6" s="31"/>
       <c r="R6" s="19">
         <v>2500</v>
       </c>
@@ -2642,24 +2646,24 @@
       <c r="B7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="30"/>
       <c r="S7" s="25"/>
       <c r="AG7"/>
     </row>
@@ -2670,35 +2674,35 @@
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="32">
         <v>50</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="31">
         <v>75</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31">
         <v>100</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32">
+      <c r="I8" s="31"/>
+      <c r="J8" s="31">
         <v>125</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32">
+      <c r="K8" s="31"/>
+      <c r="L8" s="31">
         <v>150</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32">
+      <c r="M8" s="31"/>
+      <c r="N8" s="31">
         <v>175</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32">
+      <c r="O8" s="31"/>
+      <c r="P8" s="31">
         <v>200</v>
       </c>
-      <c r="Q8" s="32"/>
+      <c r="Q8" s="31"/>
       <c r="R8" s="19">
         <v>250</v>
       </c>
@@ -2714,24 +2718,24 @@
       <c r="B9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="39"/>
       <c r="S9" s="25"/>
       <c r="AG9"/>
     </row>
@@ -2742,35 +2746,35 @@
       <c r="B10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="32">
         <v>55</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31">
         <v>70</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32">
+      <c r="G10" s="31"/>
+      <c r="H10" s="31">
         <v>85</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32">
+      <c r="I10" s="31"/>
+      <c r="J10" s="31">
         <v>100</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32">
+      <c r="K10" s="31"/>
+      <c r="L10" s="31">
         <v>200</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32">
+      <c r="M10" s="31"/>
+      <c r="N10" s="31">
         <v>300</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32">
+      <c r="O10" s="31"/>
+      <c r="P10" s="31">
         <v>400</v>
       </c>
-      <c r="Q10" s="32"/>
+      <c r="Q10" s="31"/>
       <c r="R10" s="19">
         <v>500</v>
       </c>
@@ -2786,24 +2790,24 @@
       <c r="B11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="36"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
       <c r="S11" s="25"/>
       <c r="AG11"/>
     </row>
@@ -2814,35 +2818,35 @@
       <c r="B12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="32">
         <v>55</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31">
         <v>70</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31">
         <v>85</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32">
+      <c r="I12" s="31"/>
+      <c r="J12" s="31">
         <v>100</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32">
+      <c r="K12" s="31"/>
+      <c r="L12" s="31">
         <v>200</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32">
+      <c r="M12" s="31"/>
+      <c r="N12" s="31">
         <v>300</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32">
+      <c r="O12" s="31"/>
+      <c r="P12" s="31">
         <v>400</v>
       </c>
-      <c r="Q12" s="32"/>
+      <c r="Q12" s="31"/>
       <c r="R12" s="19">
         <v>500</v>
       </c>
@@ -2858,24 +2862,24 @@
       <c r="B13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="30"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="46"/>
       <c r="S13" s="25"/>
       <c r="AG13"/>
     </row>
@@ -2920,10 +2924,10 @@
       <c r="AG14"/>
     </row>
     <row r="15" spans="1:33" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2961,8 +2965,8 @@
       <c r="AG15"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
@@ -2991,8 +2995,8 @@
       <c r="AG16"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
@@ -3021,8 +3025,8 @@
       <c r="AG17"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="8" t="s">
         <v>22</v>
       </c>
@@ -3478,6 +3482,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C13:R13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C11:R11"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="C4:R4"/>
@@ -3494,32 +3524,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="C9:R9"/>
-    <mergeCell ref="C11:R11"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C13:R13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3529,15 +3533,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0990C82-7AEE-427B-B2C8-D1F55CDC54F3}">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30:V31"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3575,7 +3579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -3613,7 +3617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3650,8 +3654,12 @@
       <c r="L3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N3" s="2">
+        <f>I3+K3</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3669,32 +3677,32 @@
         <v>500</v>
       </c>
       <c r="F4">
-        <f>F3+10</f>
+        <f t="shared" ref="F4:F22" si="0">F3+10</f>
         <v>260</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
       <c r="H4">
-        <f>H3</f>
+        <f t="shared" ref="H4:H22" si="1">H3</f>
         <v>50</v>
       </c>
       <c r="I4" s="2">
         <v>55</v>
       </c>
       <c r="J4">
-        <f>J3+1</f>
+        <f t="shared" ref="J4:J35" si="2">J3+1</f>
         <v>11</v>
       </c>
       <c r="K4" s="2">
         <v>55</v>
       </c>
       <c r="L4">
-        <f>L3+1</f>
+        <f t="shared" ref="L4:L35" si="3">L3+1</f>
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3705,39 +3713,39 @@
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <f>D4*1.05</f>
+        <f t="shared" ref="D5:D42" si="4">D4*1.05</f>
         <v>236.25</v>
       </c>
       <c r="E5">
         <v>500</v>
       </c>
       <c r="F5">
-        <f>F4+10</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="G5">
         <v>50</v>
       </c>
       <c r="H5">
-        <f>H4</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I5" s="2">
         <v>55</v>
       </c>
       <c r="J5">
-        <f>J4+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="K5" s="2">
         <v>55</v>
       </c>
       <c r="L5">
-        <f>L4+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3748,39 +3756,39 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <f>D5*1.05</f>
+        <f t="shared" si="4"/>
         <v>248.0625</v>
       </c>
       <c r="E6">
         <v>500</v>
       </c>
       <c r="F6">
-        <f>F5+10</f>
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
       <c r="G6">
         <v>50</v>
       </c>
       <c r="H6">
-        <f>H5</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I6" s="2">
         <v>55</v>
       </c>
       <c r="J6">
-        <f>J5+1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K6" s="2">
         <v>55</v>
       </c>
       <c r="L6">
-        <f>L5+1</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3791,39 +3799,39 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <f>D6*1.05</f>
+        <f t="shared" si="4"/>
         <v>260.46562499999999</v>
       </c>
       <c r="E7">
         <v>500</v>
       </c>
       <c r="F7">
-        <f>F6+10</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <f>H6</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I7" s="2">
         <v>55</v>
       </c>
       <c r="J7">
-        <f>J6+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="K7" s="2">
         <v>55</v>
       </c>
       <c r="L7">
-        <f>L6+1</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3834,39 +3842,39 @@
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <f>D7*1.05</f>
+        <f t="shared" si="4"/>
         <v>273.48890625000001</v>
       </c>
       <c r="E8">
         <v>500</v>
       </c>
       <c r="F8">
-        <f>F7+10</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <f>H7</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I8" s="2">
         <v>55</v>
       </c>
       <c r="J8">
-        <f>J7+1</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="K8" s="2">
         <v>55</v>
       </c>
       <c r="L8">
-        <f>L7+1</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3877,39 +3885,39 @@
         <v>8</v>
       </c>
       <c r="D9" s="1">
-        <f>D8*1.05</f>
+        <f t="shared" si="4"/>
         <v>287.16335156250005</v>
       </c>
       <c r="E9">
         <v>500</v>
       </c>
       <c r="F9">
-        <f>F8+10</f>
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <f>H8</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I9" s="2">
         <v>55</v>
       </c>
       <c r="J9">
-        <f>J8+1</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K9" s="2">
         <v>55</v>
       </c>
       <c r="L9">
-        <f>L8+1</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3920,39 +3928,39 @@
         <v>9</v>
       </c>
       <c r="D10" s="1">
-        <f>D9*1.05</f>
+        <f t="shared" si="4"/>
         <v>301.52151914062506</v>
       </c>
       <c r="E10">
         <v>500</v>
       </c>
       <c r="F10">
-        <f>F9+10</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <f>H9</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I10" s="2">
         <v>55</v>
       </c>
       <c r="J10">
-        <f>J9+1</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="K10" s="2">
         <v>55</v>
       </c>
       <c r="L10">
-        <f>L9+1</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3963,39 +3971,39 @@
         <v>10</v>
       </c>
       <c r="D11" s="1">
-        <f>D10*1.05</f>
+        <f t="shared" si="4"/>
         <v>316.59759509765632</v>
       </c>
       <c r="E11">
         <v>500</v>
       </c>
       <c r="F11">
-        <f>F10+10</f>
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <f>H10</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I11" s="2">
         <v>55</v>
       </c>
       <c r="J11">
-        <f>J10+1</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="K11" s="2">
         <v>55</v>
       </c>
       <c r="L11">
-        <f>L10+1</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4006,39 +4014,39 @@
         <v>11</v>
       </c>
       <c r="D12" s="1">
-        <f>D11*1.05</f>
+        <f t="shared" si="4"/>
         <v>332.42747485253915</v>
       </c>
       <c r="E12">
         <v>500</v>
       </c>
       <c r="F12">
-        <f>F11+10</f>
+        <f t="shared" si="0"/>
         <v>340</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12">
-        <f>H11</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I12" s="2">
         <v>55</v>
       </c>
       <c r="J12">
-        <f>J11+1</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="K12" s="2">
         <v>55</v>
       </c>
       <c r="L12">
-        <f>L11+1</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4049,39 +4057,39 @@
         <v>12</v>
       </c>
       <c r="D13" s="1">
-        <f>D12*1.05</f>
+        <f t="shared" si="4"/>
         <v>349.04884859516613</v>
       </c>
       <c r="E13">
         <v>500</v>
       </c>
       <c r="F13">
-        <f>F12+10</f>
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <f>H12</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I13" s="2">
         <v>70</v>
       </c>
       <c r="J13">
-        <f>J12+1</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="2">
         <v>70</v>
       </c>
       <c r="L13">
-        <f>L12+1</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4092,39 +4100,39 @@
         <v>13</v>
       </c>
       <c r="D14" s="1">
-        <f>D13*1.05</f>
+        <f t="shared" si="4"/>
         <v>366.50129102492446</v>
       </c>
       <c r="E14">
         <v>500</v>
       </c>
       <c r="F14">
-        <f>F13+10</f>
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <f>H13</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I14" s="2">
         <v>70</v>
       </c>
       <c r="J14">
-        <f>J13+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="K14" s="2">
         <v>70</v>
       </c>
       <c r="L14">
-        <f>L13+1</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4135,39 +4143,39 @@
         <v>14</v>
       </c>
       <c r="D15" s="1">
-        <f>D14*1.05</f>
+        <f t="shared" si="4"/>
         <v>384.82635557617067</v>
       </c>
       <c r="E15">
         <v>500</v>
       </c>
       <c r="F15">
-        <f>F14+10</f>
+        <f t="shared" si="0"/>
         <v>370</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <f>H14</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I15" s="2">
         <v>70</v>
       </c>
       <c r="J15">
-        <f>J14+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="K15" s="2">
         <v>70</v>
       </c>
       <c r="L15">
-        <f>L14+1</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4178,35 +4186,35 @@
         <v>15</v>
       </c>
       <c r="D16" s="1">
-        <f>D15*1.05</f>
+        <f t="shared" si="4"/>
         <v>404.06767335497921</v>
       </c>
       <c r="E16">
         <v>500</v>
       </c>
       <c r="F16">
-        <f>F15+10</f>
+        <f t="shared" si="0"/>
         <v>380</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <f>H15</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I16" s="2">
         <v>70</v>
       </c>
       <c r="J16">
-        <f>J15+1</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="K16" s="2">
         <v>70</v>
       </c>
       <c r="L16">
-        <f>L15+1</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
@@ -4221,35 +4229,35 @@
         <v>16</v>
       </c>
       <c r="D17" s="1">
-        <f>D16*1.05</f>
+        <f t="shared" si="4"/>
         <v>424.2710570227282</v>
       </c>
       <c r="E17">
         <v>500</v>
       </c>
       <c r="F17">
-        <f>F16+10</f>
+        <f t="shared" si="0"/>
         <v>390</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <f>H16</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I17" s="2">
         <v>70</v>
       </c>
       <c r="J17">
-        <f>J16+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K17" s="2">
         <v>70</v>
       </c>
       <c r="L17">
-        <f>L16+1</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
@@ -4264,35 +4272,35 @@
         <v>17</v>
       </c>
       <c r="D18" s="1">
-        <f>D17*1.05</f>
+        <f t="shared" si="4"/>
         <v>445.48460987386466</v>
       </c>
       <c r="E18">
         <v>500</v>
       </c>
       <c r="F18">
-        <f>F17+10</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <f>H17</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I18" s="2">
         <v>70</v>
       </c>
       <c r="J18">
-        <f>J17+1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="K18" s="2">
         <v>70</v>
       </c>
       <c r="L18">
-        <f>L17+1</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
@@ -4307,35 +4315,35 @@
         <v>18</v>
       </c>
       <c r="D19" s="1">
-        <f>D18*1.05</f>
+        <f t="shared" si="4"/>
         <v>467.75884036755792</v>
       </c>
       <c r="E19">
         <v>500</v>
       </c>
       <c r="F19">
-        <f>F18+10</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <f>H18</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I19" s="2">
         <v>70</v>
       </c>
       <c r="J19">
-        <f>J18+1</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="K19" s="2">
         <v>70</v>
       </c>
       <c r="L19">
-        <f>L18+1</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
@@ -4350,35 +4358,35 @@
         <v>19</v>
       </c>
       <c r="D20" s="1">
-        <f>D19*1.05</f>
+        <f t="shared" si="4"/>
         <v>491.14678238593586</v>
       </c>
       <c r="E20">
         <v>500</v>
       </c>
       <c r="F20">
-        <f>F19+10</f>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <f>H19</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I20" s="2">
         <v>70</v>
       </c>
       <c r="J20">
-        <f>J19+1</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="K20" s="2">
         <v>70</v>
       </c>
       <c r="L20">
-        <f>L19+1</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
@@ -4393,35 +4401,35 @@
         <v>20</v>
       </c>
       <c r="D21" s="1">
-        <f>D20*1.05</f>
+        <f t="shared" si="4"/>
         <v>515.70412150523271</v>
       </c>
       <c r="E21">
         <v>500</v>
       </c>
       <c r="F21">
-        <f>F20+10</f>
+        <f t="shared" si="0"/>
         <v>430</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <f>H20</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I21" s="2">
         <v>70</v>
       </c>
       <c r="J21">
-        <f>J20+1</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="K21" s="2">
         <v>70</v>
       </c>
       <c r="L21">
-        <f>L20+1</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
@@ -4436,35 +4444,35 @@
         <v>21</v>
       </c>
       <c r="D22" s="1">
-        <f>D21*1.05</f>
+        <f t="shared" si="4"/>
         <v>541.48932758049432</v>
       </c>
       <c r="E22">
         <v>500</v>
       </c>
       <c r="F22">
-        <f>F21+10</f>
+        <f t="shared" si="0"/>
         <v>440</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <f>H21</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="I22" s="2">
         <v>70</v>
       </c>
       <c r="J22">
-        <f>J21+1</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="K22" s="2">
         <v>70</v>
       </c>
       <c r="L22">
-        <f>L21+1</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>
@@ -4479,7 +4487,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="1">
-        <f>D22*1.05</f>
+        <f t="shared" si="4"/>
         <v>568.5637939595191</v>
       </c>
       <c r="E23">
@@ -4500,14 +4508,14 @@
         <v>85</v>
       </c>
       <c r="J23">
-        <f>J22+1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K23" s="2">
         <v>85</v>
       </c>
       <c r="L23">
-        <f>L22+1</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
@@ -4522,35 +4530,35 @@
         <v>23</v>
       </c>
       <c r="D24" s="1">
-        <f>D23*1.05</f>
+        <f t="shared" si="4"/>
         <v>596.9919836574951</v>
       </c>
       <c r="E24">
         <v>750</v>
       </c>
       <c r="F24">
-        <f>F23+10</f>
+        <f t="shared" ref="F24:F32" si="5">F23+10</f>
         <v>545</v>
       </c>
       <c r="G24">
         <v>75</v>
       </c>
       <c r="H24">
-        <f>H23</f>
+        <f t="shared" ref="H24:H32" si="6">H23</f>
         <v>55</v>
       </c>
       <c r="I24" s="2">
         <v>85</v>
       </c>
       <c r="J24">
-        <f>J23+1</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="K24" s="2">
         <v>85</v>
       </c>
       <c r="L24">
-        <f>L23+1</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
@@ -4565,35 +4573,35 @@
         <v>24</v>
       </c>
       <c r="D25" s="1">
-        <f>D24*1.05</f>
+        <f t="shared" si="4"/>
         <v>626.84158284036982</v>
       </c>
       <c r="E25">
         <v>750</v>
       </c>
       <c r="F25">
-        <f>F24+10</f>
+        <f t="shared" si="5"/>
         <v>555</v>
       </c>
       <c r="G25">
         <v>75</v>
       </c>
       <c r="H25">
-        <f>H24</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="I25" s="2">
         <v>85</v>
       </c>
       <c r="J25">
-        <f>J24+1</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="K25" s="2">
         <v>85</v>
       </c>
       <c r="L25">
-        <f>L24+1</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -4608,35 +4616,35 @@
         <v>25</v>
       </c>
       <c r="D26" s="1">
-        <f>D25*1.05</f>
+        <f t="shared" si="4"/>
         <v>658.18366198238834</v>
       </c>
       <c r="E26">
         <v>750</v>
       </c>
       <c r="F26">
-        <f>F25+10</f>
+        <f t="shared" si="5"/>
         <v>565</v>
       </c>
       <c r="G26">
         <v>75</v>
       </c>
       <c r="H26">
-        <f>H25</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="I26" s="2">
         <v>85</v>
       </c>
       <c r="J26">
-        <f>J25+1</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="K26" s="2">
         <v>85</v>
       </c>
       <c r="L26">
-        <f>L25+1</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -4651,35 +4659,35 @@
         <v>26</v>
       </c>
       <c r="D27" s="1">
-        <f>D26*1.05</f>
+        <f t="shared" si="4"/>
         <v>691.09284508150779</v>
       </c>
       <c r="E27">
         <v>750</v>
       </c>
       <c r="F27">
-        <f>F26+10</f>
+        <f t="shared" si="5"/>
         <v>575</v>
       </c>
       <c r="G27">
         <v>75</v>
       </c>
       <c r="H27">
-        <f>H26</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="I27" s="2">
         <v>85</v>
       </c>
       <c r="J27">
-        <f>J26+1</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="K27" s="2">
         <v>85</v>
       </c>
       <c r="L27">
-        <f>L26+1</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
@@ -4694,35 +4702,35 @@
         <v>27</v>
       </c>
       <c r="D28" s="1">
-        <f>D27*1.05</f>
+        <f t="shared" si="4"/>
         <v>725.64748733558326</v>
       </c>
       <c r="E28">
         <v>750</v>
       </c>
       <c r="F28">
-        <f>F27+10</f>
+        <f t="shared" si="5"/>
         <v>585</v>
       </c>
       <c r="G28">
         <v>75</v>
       </c>
       <c r="H28">
-        <f>H27</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="I28" s="2">
         <v>85</v>
       </c>
       <c r="J28">
-        <f>J27+1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="K28" s="2">
         <v>85</v>
       </c>
       <c r="L28">
-        <f>L27+1</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
@@ -4737,35 +4745,35 @@
         <v>28</v>
       </c>
       <c r="D29" s="1">
-        <f>D28*1.05</f>
+        <f t="shared" si="4"/>
         <v>761.92986170236247</v>
       </c>
       <c r="E29">
         <v>750</v>
       </c>
       <c r="F29">
-        <f>F28+10</f>
+        <f t="shared" si="5"/>
         <v>595</v>
       </c>
       <c r="G29">
         <v>75</v>
       </c>
       <c r="H29">
-        <f>H28</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="I29" s="2">
         <v>85</v>
       </c>
       <c r="J29">
-        <f>J28+1</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="K29" s="2">
         <v>85</v>
       </c>
       <c r="L29">
-        <f>L28+1</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
@@ -4780,35 +4788,35 @@
         <v>29</v>
       </c>
       <c r="D30" s="1">
-        <f>D29*1.05</f>
+        <f t="shared" si="4"/>
         <v>800.02635478748061</v>
       </c>
       <c r="E30">
         <v>750</v>
       </c>
       <c r="F30">
-        <f>F29+10</f>
+        <f t="shared" si="5"/>
         <v>605</v>
       </c>
       <c r="G30">
         <v>75</v>
       </c>
       <c r="H30">
-        <f>H29</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="I30" s="2">
         <v>85</v>
       </c>
       <c r="J30">
-        <f>J29+1</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="K30" s="2">
         <v>85</v>
       </c>
       <c r="L30">
-        <f>L29+1</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
     </row>
@@ -4823,35 +4831,35 @@
         <v>30</v>
       </c>
       <c r="D31" s="1">
-        <f>D30*1.05</f>
+        <f t="shared" si="4"/>
         <v>840.02767252685464</v>
       </c>
       <c r="E31">
         <v>750</v>
       </c>
       <c r="F31">
-        <f>F30+10</f>
+        <f t="shared" si="5"/>
         <v>615</v>
       </c>
       <c r="G31">
         <v>75</v>
       </c>
       <c r="H31">
-        <f>H30</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="I31" s="2">
         <v>85</v>
       </c>
       <c r="J31">
-        <f>J30+1</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="K31" s="2">
         <v>85</v>
       </c>
       <c r="L31">
-        <f>L30+1</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
     </row>
@@ -4866,35 +4874,35 @@
         <v>31</v>
       </c>
       <c r="D32" s="1">
-        <f>D31*1.05</f>
+        <f t="shared" si="4"/>
         <v>882.02905615319742</v>
       </c>
       <c r="E32">
         <v>750</v>
       </c>
       <c r="F32">
-        <f>F31+10</f>
+        <f t="shared" si="5"/>
         <v>625</v>
       </c>
       <c r="G32">
         <v>75</v>
       </c>
       <c r="H32">
-        <f>H31</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="I32" s="2">
         <v>85</v>
       </c>
       <c r="J32">
-        <f>J31+1</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="K32" s="2">
         <v>85</v>
       </c>
       <c r="L32">
-        <f>L31+1</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
@@ -4909,7 +4917,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="1">
-        <f>D32*1.05</f>
+        <f t="shared" si="4"/>
         <v>926.13050896085736</v>
       </c>
       <c r="E33">
@@ -4930,14 +4938,14 @@
         <v>100</v>
       </c>
       <c r="J33">
-        <f>J32+1</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K33" s="2">
         <v>100</v>
       </c>
       <c r="L33">
-        <f>L32+1</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
@@ -4952,35 +4960,35 @@
         <v>33</v>
       </c>
       <c r="D34" s="1">
-        <f>D33*1.05</f>
+        <f t="shared" si="4"/>
         <v>972.43703440890022</v>
       </c>
       <c r="E34">
         <v>1000</v>
       </c>
       <c r="F34">
-        <f>F33+10</f>
+        <f t="shared" ref="F34:F42" si="7">F33+10</f>
         <v>795</v>
       </c>
       <c r="G34">
         <v>100</v>
       </c>
       <c r="H34">
-        <f>H33</f>
+        <f t="shared" ref="H34:H42" si="8">H33</f>
         <v>60</v>
       </c>
       <c r="I34" s="2">
         <v>100</v>
       </c>
       <c r="J34">
-        <f>J33+1</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="K34" s="2">
         <v>100</v>
       </c>
       <c r="L34">
-        <f>L33+1</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
     </row>
@@ -4995,35 +5003,35 @@
         <v>34</v>
       </c>
       <c r="D35" s="1">
-        <f>D34*1.05</f>
+        <f t="shared" si="4"/>
         <v>1021.0588861293453</v>
       </c>
       <c r="E35">
         <v>1000</v>
       </c>
       <c r="F35">
-        <f>F34+10</f>
+        <f t="shared" si="7"/>
         <v>805</v>
       </c>
       <c r="G35">
         <v>100</v>
       </c>
       <c r="H35">
-        <f>H34</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="I35" s="2">
         <v>100</v>
       </c>
       <c r="J35">
-        <f>J34+1</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="K35" s="2">
         <v>100</v>
       </c>
       <c r="L35">
-        <f>L34+1</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
@@ -5038,35 +5046,35 @@
         <v>35</v>
       </c>
       <c r="D36" s="1">
-        <f>D35*1.05</f>
+        <f t="shared" si="4"/>
         <v>1072.1118304358126</v>
       </c>
       <c r="E36">
         <v>1000</v>
       </c>
       <c r="F36">
-        <f>F35+10</f>
+        <f t="shared" si="7"/>
         <v>815</v>
       </c>
       <c r="G36">
         <v>100</v>
       </c>
       <c r="H36">
-        <f>H35</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="I36" s="2">
         <v>100</v>
       </c>
       <c r="J36">
-        <f>J35+1</f>
+        <f t="shared" ref="J36:J52" si="9">J35+1</f>
         <v>43</v>
       </c>
       <c r="K36" s="2">
         <v>100</v>
       </c>
       <c r="L36">
-        <f>L35+1</f>
+        <f t="shared" ref="L36:L52" si="10">L35+1</f>
         <v>43</v>
       </c>
     </row>
@@ -5081,35 +5089,35 @@
         <v>36</v>
       </c>
       <c r="D37" s="1">
-        <f>D36*1.05</f>
+        <f t="shared" si="4"/>
         <v>1125.7174219576034</v>
       </c>
       <c r="E37">
         <v>1000</v>
       </c>
       <c r="F37">
-        <f>F36+10</f>
+        <f t="shared" si="7"/>
         <v>825</v>
       </c>
       <c r="G37">
         <v>100</v>
       </c>
       <c r="H37">
-        <f>H36</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="I37" s="2">
         <v>100</v>
       </c>
       <c r="J37">
-        <f>J36+1</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="K37" s="2">
         <v>100</v>
       </c>
       <c r="L37">
-        <f>L36+1</f>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
     </row>
@@ -5124,35 +5132,35 @@
         <v>37</v>
       </c>
       <c r="D38" s="1">
-        <f>D37*1.05</f>
+        <f t="shared" si="4"/>
         <v>1182.0032930554837</v>
       </c>
       <c r="E38">
         <v>1000</v>
       </c>
       <c r="F38">
-        <f>F37+10</f>
+        <f t="shared" si="7"/>
         <v>835</v>
       </c>
       <c r="G38">
         <v>100</v>
       </c>
       <c r="H38">
-        <f>H37</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="I38" s="2">
         <v>100</v>
       </c>
       <c r="J38">
-        <f>J37+1</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="K38" s="2">
         <v>100</v>
       </c>
       <c r="L38">
-        <f>L37+1</f>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
     </row>
@@ -5167,35 +5175,35 @@
         <v>38</v>
       </c>
       <c r="D39" s="1">
-        <f>D38*1.05</f>
+        <f t="shared" si="4"/>
         <v>1241.103457708258</v>
       </c>
       <c r="E39">
         <v>1000</v>
       </c>
       <c r="F39">
-        <f>F38+10</f>
+        <f t="shared" si="7"/>
         <v>845</v>
       </c>
       <c r="G39">
         <v>100</v>
       </c>
       <c r="H39">
-        <f>H38</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="I39" s="2">
         <v>100</v>
       </c>
       <c r="J39">
-        <f>J38+1</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="K39" s="2">
         <v>100</v>
       </c>
       <c r="L39">
-        <f>L38+1</f>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
     </row>
@@ -5210,35 +5218,35 @@
         <v>39</v>
       </c>
       <c r="D40" s="1">
-        <f>D39*1.05</f>
+        <f t="shared" si="4"/>
         <v>1303.158630593671</v>
       </c>
       <c r="E40">
         <v>1000</v>
       </c>
       <c r="F40">
-        <f>F39+10</f>
+        <f t="shared" si="7"/>
         <v>855</v>
       </c>
       <c r="G40">
         <v>100</v>
       </c>
       <c r="H40">
-        <f>H39</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="I40" s="2">
         <v>100</v>
       </c>
       <c r="J40">
-        <f>J39+1</f>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="K40" s="2">
         <v>100</v>
       </c>
       <c r="L40">
-        <f>L39+1</f>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
     </row>
@@ -5253,35 +5261,35 @@
         <v>40</v>
       </c>
       <c r="D41" s="1">
-        <f>D40*1.05</f>
+        <f t="shared" si="4"/>
         <v>1368.3165621233545</v>
       </c>
       <c r="E41">
         <v>1000</v>
       </c>
       <c r="F41">
-        <f>F40+10</f>
+        <f t="shared" si="7"/>
         <v>865</v>
       </c>
       <c r="G41">
         <v>100</v>
       </c>
       <c r="H41">
-        <f>H40</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="I41" s="2">
         <v>100</v>
       </c>
       <c r="J41">
-        <f>J40+1</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="K41" s="2">
         <v>100</v>
       </c>
       <c r="L41">
-        <f>L40+1</f>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
     </row>
@@ -5296,35 +5304,35 @@
         <v>41</v>
       </c>
       <c r="D42" s="1">
-        <f>D41*1.05</f>
+        <f t="shared" si="4"/>
         <v>1436.7323902295223</v>
       </c>
       <c r="E42">
         <v>1000</v>
       </c>
       <c r="F42">
-        <f>F41+10</f>
+        <f t="shared" si="7"/>
         <v>875</v>
       </c>
       <c r="G42">
         <v>100</v>
       </c>
       <c r="H42">
-        <f>H41</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="I42" s="2">
         <v>100</v>
       </c>
       <c r="J42">
-        <f>J41+1</f>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="K42" s="2">
         <v>100</v>
       </c>
       <c r="L42">
-        <f>L41+1</f>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
     </row>
@@ -5360,14 +5368,14 @@
         <v>100</v>
       </c>
       <c r="J43">
-        <f>J42+1</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="K43" s="2">
         <v>100</v>
       </c>
       <c r="L43">
-        <f>L42+1</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
     </row>
@@ -5382,35 +5390,35 @@
         <v>43</v>
       </c>
       <c r="D44" s="1">
-        <f>D43*1.05</f>
+        <f t="shared" ref="D44:D52" si="11">D43*1.05</f>
         <v>2262.8535146114978</v>
       </c>
       <c r="E44">
         <v>1250</v>
       </c>
       <c r="F44">
-        <f>F43+10</f>
+        <f t="shared" ref="F44:F52" si="12">F43+10</f>
         <v>1045</v>
       </c>
       <c r="G44">
         <v>125</v>
       </c>
       <c r="H44">
-        <f>H43</f>
+        <f t="shared" ref="H44:H52" si="13">H43</f>
         <v>65</v>
       </c>
       <c r="I44" s="2">
         <v>100</v>
       </c>
       <c r="J44">
-        <f>J43+1</f>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="K44" s="2">
         <v>100</v>
       </c>
       <c r="L44">
-        <f>L43+1</f>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
     </row>
@@ -5425,35 +5433,35 @@
         <v>44</v>
       </c>
       <c r="D45" s="1">
-        <f>D44*1.05</f>
+        <f t="shared" si="11"/>
         <v>2375.9961903420726</v>
       </c>
       <c r="E45">
         <v>1250</v>
       </c>
       <c r="F45">
-        <f>F44+10</f>
+        <f t="shared" si="12"/>
         <v>1055</v>
       </c>
       <c r="G45">
         <v>125</v>
       </c>
       <c r="H45">
-        <f>H44</f>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="I45" s="2">
         <v>100</v>
       </c>
       <c r="J45">
-        <f>J44+1</f>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="K45" s="2">
         <v>100</v>
       </c>
       <c r="L45">
-        <f>L44+1</f>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
     </row>
@@ -5468,35 +5476,35 @@
         <v>45</v>
       </c>
       <c r="D46" s="1">
-        <f>D45*1.05</f>
+        <f t="shared" si="11"/>
         <v>2494.7959998591764</v>
       </c>
       <c r="E46">
         <v>1250</v>
       </c>
       <c r="F46">
-        <f>F45+10</f>
+        <f t="shared" si="12"/>
         <v>1065</v>
       </c>
       <c r="G46">
         <v>125</v>
       </c>
       <c r="H46">
-        <f>H45</f>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="I46" s="2">
         <v>100</v>
       </c>
       <c r="J46">
-        <f>J45+1</f>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="K46" s="2">
         <v>100</v>
       </c>
       <c r="L46">
-        <f>L45+1</f>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
     </row>
@@ -5511,35 +5519,35 @@
         <v>46</v>
       </c>
       <c r="D47" s="1">
-        <f>D46*1.05</f>
+        <f t="shared" si="11"/>
         <v>2619.5357998521354</v>
       </c>
       <c r="E47">
         <v>1250</v>
       </c>
       <c r="F47">
-        <f>F46+10</f>
+        <f t="shared" si="12"/>
         <v>1075</v>
       </c>
       <c r="G47">
         <v>125</v>
       </c>
       <c r="H47">
-        <f>H46</f>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="I47" s="2">
         <v>100</v>
       </c>
       <c r="J47">
-        <f>J46+1</f>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="K47" s="2">
         <v>100</v>
       </c>
       <c r="L47">
-        <f>L46+1</f>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
     </row>
@@ -5554,35 +5562,35 @@
         <v>47</v>
       </c>
       <c r="D48" s="1">
-        <f>D47*1.05</f>
+        <f t="shared" si="11"/>
         <v>2750.5125898447423</v>
       </c>
       <c r="E48">
         <v>1250</v>
       </c>
       <c r="F48">
-        <f>F47+10</f>
+        <f t="shared" si="12"/>
         <v>1085</v>
       </c>
       <c r="G48">
         <v>125</v>
       </c>
       <c r="H48">
-        <f>H47</f>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="I48" s="2">
         <v>100</v>
       </c>
       <c r="J48">
-        <f>J47+1</f>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="K48" s="2">
         <v>100</v>
       </c>
       <c r="L48">
-        <f>L47+1</f>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
     </row>
@@ -5597,35 +5605,35 @@
         <v>48</v>
       </c>
       <c r="D49" s="1">
-        <f>D48*1.05</f>
+        <f t="shared" si="11"/>
         <v>2888.0382193369796</v>
       </c>
       <c r="E49">
         <v>1250</v>
       </c>
       <c r="F49">
-        <f>F48+10</f>
+        <f t="shared" si="12"/>
         <v>1095</v>
       </c>
       <c r="G49">
         <v>125</v>
       </c>
       <c r="H49">
-        <f>H48</f>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="I49" s="2">
         <v>100</v>
       </c>
       <c r="J49">
-        <f>J48+1</f>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="K49" s="2">
         <v>100</v>
       </c>
       <c r="L49">
-        <f>L48+1</f>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
     </row>
@@ -5640,35 +5648,35 @@
         <v>49</v>
       </c>
       <c r="D50" s="1">
-        <f>D49*1.05</f>
+        <f t="shared" si="11"/>
         <v>3032.4401303038289</v>
       </c>
       <c r="E50">
         <v>1250</v>
       </c>
       <c r="F50">
-        <f>F49+10</f>
+        <f t="shared" si="12"/>
         <v>1105</v>
       </c>
       <c r="G50">
         <v>125</v>
       </c>
       <c r="H50">
-        <f>H49</f>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="I50" s="2">
         <v>100</v>
       </c>
       <c r="J50">
-        <f>J49+1</f>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="K50" s="2">
         <v>100</v>
       </c>
       <c r="L50">
-        <f>L49+1</f>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
     </row>
@@ -5683,35 +5691,35 @@
         <v>50</v>
       </c>
       <c r="D51" s="1">
-        <f>D50*1.05</f>
+        <f t="shared" si="11"/>
         <v>3184.0621368190205</v>
       </c>
       <c r="E51">
         <v>1250</v>
       </c>
       <c r="F51">
-        <f>F50+10</f>
+        <f t="shared" si="12"/>
         <v>1115</v>
       </c>
       <c r="G51">
         <v>125</v>
       </c>
       <c r="H51">
-        <f>H50</f>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="I51" s="2">
         <v>100</v>
       </c>
       <c r="J51">
-        <f>J50+1</f>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="K51" s="2">
         <v>100</v>
       </c>
       <c r="L51">
-        <f>L50+1</f>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
     </row>
@@ -5726,35 +5734,35 @@
         <v>51</v>
       </c>
       <c r="D52" s="1">
-        <f>D51*1.05</f>
+        <f t="shared" si="11"/>
         <v>3343.2652436599715</v>
       </c>
       <c r="E52">
         <v>1250</v>
       </c>
       <c r="F52">
-        <f>F51+10</f>
+        <f t="shared" si="12"/>
         <v>1125</v>
       </c>
       <c r="G52">
         <v>125</v>
       </c>
       <c r="H52">
-        <f>H51</f>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="I52" s="2">
         <v>100</v>
       </c>
       <c r="J52">
-        <f>J51+1</f>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="K52" s="2">
         <v>100</v>
       </c>
       <c r="L52">
-        <f>L51+1</f>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
     </row>
@@ -5812,35 +5820,35 @@
         <v>53</v>
       </c>
       <c r="D54" s="1">
-        <f>D53*1.05</f>
+        <f t="shared" ref="D54:D62" si="14">D53*1.05</f>
         <v>5265.6427587644557</v>
       </c>
       <c r="E54">
         <v>1500</v>
       </c>
       <c r="F54">
-        <f>F53+10</f>
+        <f t="shared" ref="F54:F62" si="15">F53+10</f>
         <v>1295</v>
       </c>
       <c r="G54">
         <v>150</v>
       </c>
       <c r="H54">
-        <f>H53</f>
+        <f t="shared" ref="H54:H62" si="16">H53</f>
         <v>135</v>
       </c>
       <c r="I54" s="2">
         <v>200</v>
       </c>
       <c r="J54">
-        <f>J53+1</f>
+        <f t="shared" ref="J54:J62" si="17">J53+1</f>
         <v>112</v>
       </c>
       <c r="K54" s="2">
         <v>200</v>
       </c>
       <c r="L54">
-        <f>L53+1</f>
+        <f t="shared" ref="L54:L62" si="18">L53+1</f>
         <v>112</v>
       </c>
     </row>
@@ -5855,35 +5863,35 @@
         <v>54</v>
       </c>
       <c r="D55" s="1">
-        <f>D54*1.05</f>
+        <f t="shared" si="14"/>
         <v>5528.9248967026788</v>
       </c>
       <c r="E55">
         <v>1500</v>
       </c>
       <c r="F55">
-        <f>F54+10</f>
+        <f t="shared" si="15"/>
         <v>1305</v>
       </c>
       <c r="G55">
         <v>150</v>
       </c>
       <c r="H55">
-        <f>H54</f>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="I55" s="2">
         <v>200</v>
       </c>
       <c r="J55">
-        <f>J54+1</f>
+        <f t="shared" si="17"/>
         <v>113</v>
       </c>
       <c r="K55" s="2">
         <v>200</v>
       </c>
       <c r="L55">
-        <f>L54+1</f>
+        <f t="shared" si="18"/>
         <v>113</v>
       </c>
     </row>
@@ -5898,35 +5906,35 @@
         <v>55</v>
       </c>
       <c r="D56" s="1">
-        <f>D55*1.05</f>
+        <f t="shared" si="14"/>
         <v>5805.3711415378129</v>
       </c>
       <c r="E56">
         <v>1500</v>
       </c>
       <c r="F56">
-        <f>F55+10</f>
+        <f t="shared" si="15"/>
         <v>1315</v>
       </c>
       <c r="G56">
         <v>150</v>
       </c>
       <c r="H56">
-        <f>H55</f>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="I56" s="2">
         <v>200</v>
       </c>
       <c r="J56">
-        <f>J55+1</f>
+        <f t="shared" si="17"/>
         <v>114</v>
       </c>
       <c r="K56" s="2">
         <v>200</v>
       </c>
       <c r="L56">
-        <f>L55+1</f>
+        <f t="shared" si="18"/>
         <v>114</v>
       </c>
     </row>
@@ -5941,35 +5949,35 @@
         <v>56</v>
       </c>
       <c r="D57" s="1">
-        <f>D56*1.05</f>
+        <f t="shared" si="14"/>
         <v>6095.6396986147038</v>
       </c>
       <c r="E57">
         <v>1500</v>
       </c>
       <c r="F57">
-        <f>F56+10</f>
+        <f t="shared" si="15"/>
         <v>1325</v>
       </c>
       <c r="G57">
         <v>150</v>
       </c>
       <c r="H57">
-        <f>H56</f>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="I57" s="2">
         <v>200</v>
       </c>
       <c r="J57">
-        <f>J56+1</f>
+        <f t="shared" si="17"/>
         <v>115</v>
       </c>
       <c r="K57" s="2">
         <v>200</v>
       </c>
       <c r="L57">
-        <f>L56+1</f>
+        <f t="shared" si="18"/>
         <v>115</v>
       </c>
     </row>
@@ -5984,35 +5992,35 @@
         <v>57</v>
       </c>
       <c r="D58" s="1">
-        <f>D57*1.05</f>
+        <f t="shared" si="14"/>
         <v>6400.421683545439</v>
       </c>
       <c r="E58">
         <v>1500</v>
       </c>
       <c r="F58">
-        <f>F57+10</f>
+        <f t="shared" si="15"/>
         <v>1335</v>
       </c>
       <c r="G58">
         <v>150</v>
       </c>
       <c r="H58">
-        <f>H57</f>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="I58" s="2">
         <v>200</v>
       </c>
       <c r="J58">
-        <f>J57+1</f>
+        <f t="shared" si="17"/>
         <v>116</v>
       </c>
       <c r="K58" s="2">
         <v>200</v>
       </c>
       <c r="L58">
-        <f>L57+1</f>
+        <f t="shared" si="18"/>
         <v>116</v>
       </c>
     </row>
@@ -6027,35 +6035,35 @@
         <v>58</v>
       </c>
       <c r="D59" s="1">
-        <f>D58*1.05</f>
+        <f t="shared" si="14"/>
         <v>6720.4427677227113</v>
       </c>
       <c r="E59">
         <v>1500</v>
       </c>
       <c r="F59">
-        <f>F58+10</f>
+        <f t="shared" si="15"/>
         <v>1345</v>
       </c>
       <c r="G59">
         <v>150</v>
       </c>
       <c r="H59">
-        <f>H58</f>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="I59" s="2">
         <v>200</v>
       </c>
       <c r="J59">
-        <f>J58+1</f>
+        <f t="shared" si="17"/>
         <v>117</v>
       </c>
       <c r="K59" s="2">
         <v>200</v>
       </c>
       <c r="L59">
-        <f>L58+1</f>
+        <f t="shared" si="18"/>
         <v>117</v>
       </c>
     </row>
@@ -6070,35 +6078,35 @@
         <v>59</v>
       </c>
       <c r="D60" s="1">
-        <f>D59*1.05</f>
+        <f t="shared" si="14"/>
         <v>7056.4649061088476</v>
       </c>
       <c r="E60">
         <v>1500</v>
       </c>
       <c r="F60">
-        <f>F59+10</f>
+        <f t="shared" si="15"/>
         <v>1355</v>
       </c>
       <c r="G60">
         <v>150</v>
       </c>
       <c r="H60">
-        <f>H59</f>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="I60" s="2">
         <v>200</v>
       </c>
       <c r="J60">
-        <f>J59+1</f>
+        <f t="shared" si="17"/>
         <v>118</v>
       </c>
       <c r="K60" s="2">
         <v>200</v>
       </c>
       <c r="L60">
-        <f>L59+1</f>
+        <f t="shared" si="18"/>
         <v>118</v>
       </c>
     </row>
@@ -6113,35 +6121,35 @@
         <v>60</v>
       </c>
       <c r="D61" s="1">
-        <f>D60*1.05</f>
+        <f t="shared" si="14"/>
         <v>7409.28815141429</v>
       </c>
       <c r="E61">
         <v>1500</v>
       </c>
       <c r="F61">
-        <f>F60+10</f>
+        <f t="shared" si="15"/>
         <v>1365</v>
       </c>
       <c r="G61">
         <v>150</v>
       </c>
       <c r="H61">
-        <f>H60</f>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="I61" s="2">
         <v>200</v>
       </c>
       <c r="J61">
-        <f>J60+1</f>
+        <f t="shared" si="17"/>
         <v>119</v>
       </c>
       <c r="K61" s="2">
         <v>200</v>
       </c>
       <c r="L61">
-        <f>L60+1</f>
+        <f t="shared" si="18"/>
         <v>119</v>
       </c>
     </row>
@@ -6156,35 +6164,35 @@
         <v>61</v>
       </c>
       <c r="D62" s="1">
-        <f>D61*1.05</f>
+        <f t="shared" si="14"/>
         <v>7779.7525589850047</v>
       </c>
       <c r="E62">
         <v>1500</v>
       </c>
       <c r="F62">
-        <f>F61+10</f>
+        <f t="shared" si="15"/>
         <v>1375</v>
       </c>
       <c r="G62">
         <v>150</v>
       </c>
       <c r="H62">
-        <f>H61</f>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="I62" s="2">
         <v>200</v>
       </c>
       <c r="J62">
-        <f>J61+1</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="K62" s="2">
         <v>200</v>
       </c>
       <c r="L62">
-        <f>L61+1</f>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
     </row>
@@ -6242,35 +6250,35 @@
         <v>63</v>
       </c>
       <c r="D64" s="1">
-        <f>D63*1.05</f>
+        <f t="shared" ref="D64:D82" si="19">D63*1.05</f>
         <v>12253.110280401383</v>
       </c>
       <c r="E64">
         <v>1750</v>
       </c>
       <c r="F64">
-        <f>F63+10</f>
+        <f t="shared" ref="F64:F82" si="20">F63+10</f>
         <v>1545</v>
       </c>
       <c r="G64">
         <v>175</v>
       </c>
       <c r="H64">
-        <f>H63</f>
+        <f t="shared" ref="H64:H82" si="21">H63</f>
         <v>160</v>
       </c>
       <c r="I64" s="2">
         <v>300</v>
       </c>
       <c r="J64">
-        <f>J63+1</f>
+        <f t="shared" ref="J64:J82" si="22">J63+1</f>
         <v>212</v>
       </c>
       <c r="K64" s="2">
         <v>300</v>
       </c>
       <c r="L64">
-        <f>L63+1</f>
+        <f t="shared" ref="L64:L82" si="23">L63+1</f>
         <v>212</v>
       </c>
     </row>
@@ -6285,35 +6293,35 @@
         <v>64</v>
       </c>
       <c r="D65" s="1">
-        <f>D64*1.05</f>
+        <f t="shared" si="19"/>
         <v>12865.765794421452</v>
       </c>
       <c r="E65">
         <v>1750</v>
       </c>
       <c r="F65">
-        <f>F64+10</f>
+        <f t="shared" si="20"/>
         <v>1555</v>
       </c>
       <c r="G65">
         <v>175</v>
       </c>
       <c r="H65">
-        <f>H64</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I65" s="2">
         <v>300</v>
       </c>
       <c r="J65">
-        <f>J64+1</f>
+        <f t="shared" si="22"/>
         <v>213</v>
       </c>
       <c r="K65" s="2">
         <v>300</v>
       </c>
       <c r="L65">
-        <f>L64+1</f>
+        <f t="shared" si="23"/>
         <v>213</v>
       </c>
     </row>
@@ -6328,35 +6336,35 @@
         <v>65</v>
       </c>
       <c r="D66" s="1">
-        <f>D65*1.05</f>
+        <f t="shared" si="19"/>
         <v>13509.054084142525</v>
       </c>
       <c r="E66">
         <v>1750</v>
       </c>
       <c r="F66">
-        <f>F65+10</f>
+        <f t="shared" si="20"/>
         <v>1565</v>
       </c>
       <c r="G66">
         <v>175</v>
       </c>
       <c r="H66">
-        <f>H65</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I66" s="2">
         <v>300</v>
       </c>
       <c r="J66">
-        <f>J65+1</f>
+        <f t="shared" si="22"/>
         <v>214</v>
       </c>
       <c r="K66" s="2">
         <v>300</v>
       </c>
       <c r="L66">
-        <f>L65+1</f>
+        <f t="shared" si="23"/>
         <v>214</v>
       </c>
     </row>
@@ -6371,35 +6379,35 @@
         <v>66</v>
       </c>
       <c r="D67" s="1">
-        <f>D66*1.05</f>
+        <f t="shared" si="19"/>
         <v>14184.506788349652</v>
       </c>
       <c r="E67">
         <v>1750</v>
       </c>
       <c r="F67">
-        <f>F66+10</f>
+        <f t="shared" si="20"/>
         <v>1575</v>
       </c>
       <c r="G67">
         <v>175</v>
       </c>
       <c r="H67">
-        <f>H66</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I67" s="2">
         <v>300</v>
       </c>
       <c r="J67">
-        <f>J66+1</f>
+        <f t="shared" si="22"/>
         <v>215</v>
       </c>
       <c r="K67" s="2">
         <v>300</v>
       </c>
       <c r="L67">
-        <f>L66+1</f>
+        <f t="shared" si="23"/>
         <v>215</v>
       </c>
     </row>
@@ -6414,35 +6422,35 @@
         <v>67</v>
       </c>
       <c r="D68" s="1">
-        <f>D67*1.05</f>
+        <f t="shared" si="19"/>
         <v>14893.732127767136</v>
       </c>
       <c r="E68">
         <v>1750</v>
       </c>
       <c r="F68">
-        <f>F67+10</f>
+        <f t="shared" si="20"/>
         <v>1585</v>
       </c>
       <c r="G68">
         <v>175</v>
       </c>
       <c r="H68">
-        <f>H67</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I68" s="2">
         <v>300</v>
       </c>
       <c r="J68">
-        <f>J67+1</f>
+        <f t="shared" si="22"/>
         <v>216</v>
       </c>
       <c r="K68" s="2">
         <v>300</v>
       </c>
       <c r="L68">
-        <f>L67+1</f>
+        <f t="shared" si="23"/>
         <v>216</v>
       </c>
     </row>
@@ -6457,35 +6465,35 @@
         <v>68</v>
       </c>
       <c r="D69" s="1">
-        <f>D68*1.05</f>
+        <f t="shared" si="19"/>
         <v>15638.418734155493</v>
       </c>
       <c r="E69">
         <v>1750</v>
       </c>
       <c r="F69">
-        <f>F68+10</f>
+        <f t="shared" si="20"/>
         <v>1595</v>
       </c>
       <c r="G69">
         <v>175</v>
       </c>
       <c r="H69">
-        <f>H68</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I69" s="2">
         <v>300</v>
       </c>
       <c r="J69">
-        <f>J68+1</f>
+        <f t="shared" si="22"/>
         <v>217</v>
       </c>
       <c r="K69" s="2">
         <v>300</v>
       </c>
       <c r="L69">
-        <f>L68+1</f>
+        <f t="shared" si="23"/>
         <v>217</v>
       </c>
     </row>
@@ -6500,35 +6508,35 @@
         <v>69</v>
       </c>
       <c r="D70" s="1">
-        <f>D69*1.05</f>
+        <f t="shared" si="19"/>
         <v>16420.339670863268</v>
       </c>
       <c r="E70">
         <v>1750</v>
       </c>
       <c r="F70">
-        <f>F69+10</f>
+        <f t="shared" si="20"/>
         <v>1605</v>
       </c>
       <c r="G70">
         <v>175</v>
       </c>
       <c r="H70">
-        <f>H69</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I70" s="2">
         <v>300</v>
       </c>
       <c r="J70">
-        <f>J69+1</f>
+        <f t="shared" si="22"/>
         <v>218</v>
       </c>
       <c r="K70" s="2">
         <v>300</v>
       </c>
       <c r="L70">
-        <f>L69+1</f>
+        <f t="shared" si="23"/>
         <v>218</v>
       </c>
     </row>
@@ -6543,35 +6551,35 @@
         <v>70</v>
       </c>
       <c r="D71" s="1">
-        <f>D70*1.05</f>
+        <f t="shared" si="19"/>
         <v>17241.356654406431</v>
       </c>
       <c r="E71">
         <v>1750</v>
       </c>
       <c r="F71">
-        <f>F70+10</f>
+        <f t="shared" si="20"/>
         <v>1615</v>
       </c>
       <c r="G71">
         <v>175</v>
       </c>
       <c r="H71">
-        <f>H70</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I71" s="2">
         <v>300</v>
       </c>
       <c r="J71">
-        <f>J70+1</f>
+        <f t="shared" si="22"/>
         <v>219</v>
       </c>
       <c r="K71" s="2">
         <v>300</v>
       </c>
       <c r="L71">
-        <f>L70+1</f>
+        <f t="shared" si="23"/>
         <v>219</v>
       </c>
     </row>
@@ -6586,35 +6594,35 @@
         <v>71</v>
       </c>
       <c r="D72" s="1">
-        <f>D71*1.05</f>
+        <f t="shared" si="19"/>
         <v>18103.424487126755</v>
       </c>
       <c r="E72">
         <v>1750</v>
       </c>
       <c r="F72">
-        <f>F71+10</f>
+        <f t="shared" si="20"/>
         <v>1625</v>
       </c>
       <c r="G72">
         <v>175</v>
       </c>
       <c r="H72">
-        <f>H71</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I72" s="2">
         <v>300</v>
       </c>
       <c r="J72">
-        <f>J71+1</f>
+        <f t="shared" si="22"/>
         <v>220</v>
       </c>
       <c r="K72" s="2">
         <v>300</v>
       </c>
       <c r="L72">
-        <f>L71+1</f>
+        <f t="shared" si="23"/>
         <v>220</v>
       </c>
     </row>
@@ -6629,35 +6637,35 @@
         <v>72</v>
       </c>
       <c r="D73" s="1">
-        <f>D72*1.05</f>
+        <f t="shared" si="19"/>
         <v>19008.595711483093</v>
       </c>
       <c r="E73">
         <v>1750</v>
       </c>
       <c r="F73">
-        <f>F72+10</f>
+        <f t="shared" si="20"/>
         <v>1635</v>
       </c>
       <c r="G73">
         <v>175</v>
       </c>
       <c r="H73">
-        <f>H72</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I73" s="2">
         <v>300</v>
       </c>
       <c r="J73">
-        <f>J72+1</f>
+        <f t="shared" si="22"/>
         <v>221</v>
       </c>
       <c r="K73" s="2">
         <v>300</v>
       </c>
       <c r="L73">
-        <f>L72+1</f>
+        <f t="shared" si="23"/>
         <v>221</v>
       </c>
     </row>
@@ -6672,35 +6680,35 @@
         <v>73</v>
       </c>
       <c r="D74" s="1">
-        <f>D73*1.05</f>
+        <f t="shared" si="19"/>
         <v>19959.02549705725</v>
       </c>
       <c r="E74">
         <v>1750</v>
       </c>
       <c r="F74">
-        <f>F73+10</f>
+        <f t="shared" si="20"/>
         <v>1645</v>
       </c>
       <c r="G74">
         <v>175</v>
       </c>
       <c r="H74">
-        <f>H73</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I74" s="2">
         <v>300</v>
       </c>
       <c r="J74">
-        <f>J73+1</f>
+        <f t="shared" si="22"/>
         <v>222</v>
       </c>
       <c r="K74" s="2">
         <v>300</v>
       </c>
       <c r="L74">
-        <f>L73+1</f>
+        <f t="shared" si="23"/>
         <v>222</v>
       </c>
     </row>
@@ -6715,35 +6723,35 @@
         <v>74</v>
       </c>
       <c r="D75" s="1">
-        <f>D74*1.05</f>
+        <f t="shared" si="19"/>
         <v>20956.976771910115</v>
       </c>
       <c r="E75">
         <v>1750</v>
       </c>
       <c r="F75">
-        <f>F74+10</f>
+        <f t="shared" si="20"/>
         <v>1655</v>
       </c>
       <c r="G75">
         <v>175</v>
       </c>
       <c r="H75">
-        <f>H74</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I75" s="2">
         <v>300</v>
       </c>
       <c r="J75">
-        <f>J74+1</f>
+        <f t="shared" si="22"/>
         <v>223</v>
       </c>
       <c r="K75" s="2">
         <v>300</v>
       </c>
       <c r="L75">
-        <f>L74+1</f>
+        <f t="shared" si="23"/>
         <v>223</v>
       </c>
     </row>
@@ -6758,35 +6766,35 @@
         <v>75</v>
       </c>
       <c r="D76" s="1">
-        <f>D75*1.05</f>
+        <f t="shared" si="19"/>
         <v>22004.825610505621</v>
       </c>
       <c r="E76">
         <v>1750</v>
       </c>
       <c r="F76">
-        <f>F75+10</f>
+        <f t="shared" si="20"/>
         <v>1665</v>
       </c>
       <c r="G76">
         <v>175</v>
       </c>
       <c r="H76">
-        <f>H75</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I76" s="2">
         <v>300</v>
       </c>
       <c r="J76">
-        <f>J75+1</f>
+        <f t="shared" si="22"/>
         <v>224</v>
       </c>
       <c r="K76" s="2">
         <v>300</v>
       </c>
       <c r="L76">
-        <f>L75+1</f>
+        <f t="shared" si="23"/>
         <v>224</v>
       </c>
     </row>
@@ -6801,35 +6809,35 @@
         <v>76</v>
       </c>
       <c r="D77" s="1">
-        <f>D76*1.05</f>
+        <f t="shared" si="19"/>
         <v>23105.066891030903</v>
       </c>
       <c r="E77">
         <v>1750</v>
       </c>
       <c r="F77">
-        <f>F76+10</f>
+        <f t="shared" si="20"/>
         <v>1675</v>
       </c>
       <c r="G77">
         <v>175</v>
       </c>
       <c r="H77">
-        <f>H76</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I77" s="2">
         <v>300</v>
       </c>
       <c r="J77">
-        <f>J76+1</f>
+        <f t="shared" si="22"/>
         <v>225</v>
       </c>
       <c r="K77" s="2">
         <v>300</v>
       </c>
       <c r="L77">
-        <f>L76+1</f>
+        <f t="shared" si="23"/>
         <v>225</v>
       </c>
     </row>
@@ -6844,35 +6852,35 @@
         <v>77</v>
       </c>
       <c r="D78" s="1">
-        <f>D77*1.05</f>
+        <f t="shared" si="19"/>
         <v>24260.320235582451</v>
       </c>
       <c r="E78">
         <v>1750</v>
       </c>
       <c r="F78">
-        <f>F77+10</f>
+        <f t="shared" si="20"/>
         <v>1685</v>
       </c>
       <c r="G78">
         <v>175</v>
       </c>
       <c r="H78">
-        <f>H77</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I78" s="2">
         <v>300</v>
       </c>
       <c r="J78">
-        <f>J77+1</f>
+        <f t="shared" si="22"/>
         <v>226</v>
       </c>
       <c r="K78" s="2">
         <v>300</v>
       </c>
       <c r="L78">
-        <f>L77+1</f>
+        <f t="shared" si="23"/>
         <v>226</v>
       </c>
     </row>
@@ -6887,35 +6895,35 @@
         <v>78</v>
       </c>
       <c r="D79" s="1">
-        <f>D78*1.05</f>
+        <f t="shared" si="19"/>
         <v>25473.336247361574</v>
       </c>
       <c r="E79">
         <v>1750</v>
       </c>
       <c r="F79">
-        <f>F78+10</f>
+        <f t="shared" si="20"/>
         <v>1695</v>
       </c>
       <c r="G79">
         <v>175</v>
       </c>
       <c r="H79">
-        <f>H78</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I79" s="2">
         <v>300</v>
       </c>
       <c r="J79">
-        <f>J78+1</f>
+        <f t="shared" si="22"/>
         <v>227</v>
       </c>
       <c r="K79" s="2">
         <v>300</v>
       </c>
       <c r="L79">
-        <f>L78+1</f>
+        <f t="shared" si="23"/>
         <v>227</v>
       </c>
     </row>
@@ -6930,35 +6938,35 @@
         <v>79</v>
       </c>
       <c r="D80" s="1">
-        <f>D79*1.05</f>
+        <f t="shared" si="19"/>
         <v>26747.003059729654</v>
       </c>
       <c r="E80">
         <v>1750</v>
       </c>
       <c r="F80">
-        <f>F79+10</f>
+        <f t="shared" si="20"/>
         <v>1705</v>
       </c>
       <c r="G80">
         <v>175</v>
       </c>
       <c r="H80">
-        <f>H79</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I80" s="2">
         <v>300</v>
       </c>
       <c r="J80">
-        <f>J79+1</f>
+        <f t="shared" si="22"/>
         <v>228</v>
       </c>
       <c r="K80" s="2">
         <v>300</v>
       </c>
       <c r="L80">
-        <f>L79+1</f>
+        <f t="shared" si="23"/>
         <v>228</v>
       </c>
     </row>
@@ -6973,35 +6981,35 @@
         <v>80</v>
       </c>
       <c r="D81" s="1">
-        <f>D80*1.05</f>
+        <f t="shared" si="19"/>
         <v>28084.353212716138</v>
       </c>
       <c r="E81">
         <v>1750</v>
       </c>
       <c r="F81">
-        <f>F80+10</f>
+        <f t="shared" si="20"/>
         <v>1715</v>
       </c>
       <c r="G81">
         <v>175</v>
       </c>
       <c r="H81">
-        <f>H80</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I81" s="2">
         <v>300</v>
       </c>
       <c r="J81">
-        <f>J80+1</f>
+        <f t="shared" si="22"/>
         <v>229</v>
       </c>
       <c r="K81" s="2">
         <v>300</v>
       </c>
       <c r="L81">
-        <f>L80+1</f>
+        <f t="shared" si="23"/>
         <v>229</v>
       </c>
     </row>
@@ -7016,35 +7024,35 @@
         <v>81</v>
       </c>
       <c r="D82" s="1">
-        <f>D81*1.05</f>
+        <f t="shared" si="19"/>
         <v>29488.570873351946</v>
       </c>
       <c r="E82">
         <v>1750</v>
       </c>
       <c r="F82">
-        <f>F81+10</f>
+        <f t="shared" si="20"/>
         <v>1725</v>
       </c>
       <c r="G82">
         <v>175</v>
       </c>
       <c r="H82">
-        <f>H81</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I82" s="2">
         <v>300</v>
       </c>
       <c r="J82">
-        <f>J81+1</f>
+        <f t="shared" si="22"/>
         <v>230</v>
       </c>
       <c r="K82" s="2">
         <v>300</v>
       </c>
       <c r="L82">
-        <f>L81+1</f>
+        <f t="shared" si="23"/>
         <v>230</v>
       </c>
     </row>
@@ -7102,35 +7110,35 @@
         <v>83</v>
       </c>
       <c r="D84" s="1">
-        <f>D83*1.05</f>
+        <f t="shared" ref="D84:D101" si="24">D83*1.05</f>
         <v>46444.499125529321</v>
       </c>
       <c r="E84">
         <v>2000</v>
       </c>
       <c r="F84">
-        <f>F83+10</f>
+        <f t="shared" ref="F84:F102" si="25">F83+10</f>
         <v>1795</v>
       </c>
       <c r="G84">
         <v>200</v>
       </c>
       <c r="H84">
-        <f>H83</f>
+        <f t="shared" ref="H84:H102" si="26">H83</f>
         <v>185</v>
       </c>
       <c r="I84" s="2">
         <v>400</v>
       </c>
       <c r="J84">
-        <f>J83+1</f>
+        <f t="shared" ref="J84:J102" si="27">J83+1</f>
         <v>312</v>
       </c>
       <c r="K84" s="2">
         <v>400</v>
       </c>
       <c r="L84">
-        <f>L83+1</f>
+        <f t="shared" ref="L84:L102" si="28">L83+1</f>
         <v>312</v>
       </c>
     </row>
@@ -7145,35 +7153,35 @@
         <v>84</v>
       </c>
       <c r="D85" s="1">
-        <f>D84*1.05</f>
+        <f t="shared" si="24"/>
         <v>48766.724081805791</v>
       </c>
       <c r="E85">
         <v>2000</v>
       </c>
       <c r="F85">
-        <f>F84+10</f>
+        <f t="shared" si="25"/>
         <v>1805</v>
       </c>
       <c r="G85">
         <v>200</v>
       </c>
       <c r="H85">
-        <f>H84</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I85" s="2">
         <v>400</v>
       </c>
       <c r="J85">
-        <f>J84+1</f>
+        <f t="shared" si="27"/>
         <v>313</v>
       </c>
       <c r="K85" s="2">
         <v>400</v>
       </c>
       <c r="L85">
-        <f>L84+1</f>
+        <f t="shared" si="28"/>
         <v>313</v>
       </c>
     </row>
@@ -7188,35 +7196,35 @@
         <v>85</v>
       </c>
       <c r="D86" s="1">
-        <f>D85*1.05</f>
+        <f t="shared" si="24"/>
         <v>51205.060285896085</v>
       </c>
       <c r="E86">
         <v>2000</v>
       </c>
       <c r="F86">
-        <f>F85+10</f>
+        <f t="shared" si="25"/>
         <v>1815</v>
       </c>
       <c r="G86">
         <v>200</v>
       </c>
       <c r="H86">
-        <f>H85</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I86" s="2">
         <v>400</v>
       </c>
       <c r="J86">
-        <f>J85+1</f>
+        <f t="shared" si="27"/>
         <v>314</v>
       </c>
       <c r="K86" s="2">
         <v>400</v>
       </c>
       <c r="L86">
-        <f>L85+1</f>
+        <f t="shared" si="28"/>
         <v>314</v>
       </c>
     </row>
@@ -7231,35 +7239,35 @@
         <v>86</v>
       </c>
       <c r="D87" s="1">
-        <f>D86*1.05</f>
+        <f t="shared" si="24"/>
         <v>53765.313300190894</v>
       </c>
       <c r="E87">
         <v>2000</v>
       </c>
       <c r="F87">
-        <f>F86+10</f>
+        <f t="shared" si="25"/>
         <v>1825</v>
       </c>
       <c r="G87">
         <v>200</v>
       </c>
       <c r="H87">
-        <f>H86</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I87" s="2">
         <v>400</v>
       </c>
       <c r="J87">
-        <f>J86+1</f>
+        <f t="shared" si="27"/>
         <v>315</v>
       </c>
       <c r="K87" s="2">
         <v>400</v>
       </c>
       <c r="L87">
-        <f>L86+1</f>
+        <f t="shared" si="28"/>
         <v>315</v>
       </c>
     </row>
@@ -7274,35 +7282,35 @@
         <v>87</v>
       </c>
       <c r="D88" s="1">
-        <f>D87*1.05</f>
+        <f t="shared" si="24"/>
         <v>56453.578965200439</v>
       </c>
       <c r="E88">
         <v>2000</v>
       </c>
       <c r="F88">
-        <f>F87+10</f>
+        <f t="shared" si="25"/>
         <v>1835</v>
       </c>
       <c r="G88">
         <v>200</v>
       </c>
       <c r="H88">
-        <f>H87</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I88" s="2">
         <v>400</v>
       </c>
       <c r="J88">
-        <f>J87+1</f>
+        <f t="shared" si="27"/>
         <v>316</v>
       </c>
       <c r="K88" s="2">
         <v>400</v>
       </c>
       <c r="L88">
-        <f>L87+1</f>
+        <f t="shared" si="28"/>
         <v>316</v>
       </c>
     </row>
@@ -7317,35 +7325,35 @@
         <v>88</v>
       </c>
       <c r="D89" s="1">
-        <f>D88*1.05</f>
+        <f t="shared" si="24"/>
         <v>59276.25791346046</v>
       </c>
       <c r="E89">
         <v>2000</v>
       </c>
       <c r="F89">
-        <f>F88+10</f>
+        <f t="shared" si="25"/>
         <v>1845</v>
       </c>
       <c r="G89">
         <v>200</v>
       </c>
       <c r="H89">
-        <f>H88</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I89" s="2">
         <v>400</v>
       </c>
       <c r="J89">
-        <f>J88+1</f>
+        <f t="shared" si="27"/>
         <v>317</v>
       </c>
       <c r="K89" s="2">
         <v>400</v>
       </c>
       <c r="L89">
-        <f>L88+1</f>
+        <f t="shared" si="28"/>
         <v>317</v>
       </c>
     </row>
@@ -7360,35 +7368,35 @@
         <v>89</v>
       </c>
       <c r="D90" s="1">
-        <f>D89*1.05</f>
+        <f t="shared" si="24"/>
         <v>62240.070809133489</v>
       </c>
       <c r="E90">
         <v>2000</v>
       </c>
       <c r="F90">
-        <f>F89+10</f>
+        <f t="shared" si="25"/>
         <v>1855</v>
       </c>
       <c r="G90">
         <v>200</v>
       </c>
       <c r="H90">
-        <f>H89</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I90" s="2">
         <v>400</v>
       </c>
       <c r="J90">
-        <f>J89+1</f>
+        <f t="shared" si="27"/>
         <v>318</v>
       </c>
       <c r="K90" s="2">
         <v>400</v>
       </c>
       <c r="L90">
-        <f>L89+1</f>
+        <f t="shared" si="28"/>
         <v>318</v>
       </c>
     </row>
@@ -7403,35 +7411,35 @@
         <v>90</v>
       </c>
       <c r="D91" s="1">
-        <f>D90*1.05</f>
+        <f t="shared" si="24"/>
         <v>65352.07434959017</v>
       </c>
       <c r="E91">
         <v>2000</v>
       </c>
       <c r="F91">
-        <f>F90+10</f>
+        <f t="shared" si="25"/>
         <v>1865</v>
       </c>
       <c r="G91">
         <v>200</v>
       </c>
       <c r="H91">
-        <f>H90</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I91" s="2">
         <v>400</v>
       </c>
       <c r="J91">
-        <f>J90+1</f>
+        <f t="shared" si="27"/>
         <v>319</v>
       </c>
       <c r="K91" s="2">
         <v>400</v>
       </c>
       <c r="L91">
-        <f>L90+1</f>
+        <f t="shared" si="28"/>
         <v>319</v>
       </c>
     </row>
@@ -7446,35 +7454,35 @@
         <v>91</v>
       </c>
       <c r="D92" s="1">
-        <f>D91*1.05</f>
+        <f t="shared" si="24"/>
         <v>68619.678067069675</v>
       </c>
       <c r="E92">
         <v>2000</v>
       </c>
       <c r="F92">
-        <f>F91+10</f>
+        <f t="shared" si="25"/>
         <v>1875</v>
       </c>
       <c r="G92">
         <v>200</v>
       </c>
       <c r="H92">
-        <f>H91</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I92" s="2">
         <v>400</v>
       </c>
       <c r="J92">
-        <f>J91+1</f>
+        <f t="shared" si="27"/>
         <v>320</v>
       </c>
       <c r="K92" s="2">
         <v>400</v>
       </c>
       <c r="L92">
-        <f>L91+1</f>
+        <f t="shared" si="28"/>
         <v>320</v>
       </c>
     </row>
@@ -7489,35 +7497,35 @@
         <v>92</v>
       </c>
       <c r="D93" s="1">
-        <f>D92*1.05</f>
+        <f t="shared" si="24"/>
         <v>72050.661970423156</v>
       </c>
       <c r="E93">
         <v>2000</v>
       </c>
       <c r="F93">
-        <f>F92+10</f>
+        <f t="shared" si="25"/>
         <v>1885</v>
       </c>
       <c r="G93">
         <v>200</v>
       </c>
       <c r="H93">
-        <f>H92</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I93" s="2">
         <v>400</v>
       </c>
       <c r="J93">
-        <f>J92+1</f>
+        <f t="shared" si="27"/>
         <v>321</v>
       </c>
       <c r="K93" s="2">
         <v>400</v>
       </c>
       <c r="L93">
-        <f>L92+1</f>
+        <f t="shared" si="28"/>
         <v>321</v>
       </c>
     </row>
@@ -7532,35 +7540,35 @@
         <v>93</v>
       </c>
       <c r="D94" s="1">
-        <f>D93*1.05</f>
+        <f t="shared" si="24"/>
         <v>75653.195068944318</v>
       </c>
       <c r="E94">
         <v>2000</v>
       </c>
       <c r="F94">
-        <f>F93+10</f>
+        <f t="shared" si="25"/>
         <v>1895</v>
       </c>
       <c r="G94">
         <v>200</v>
       </c>
       <c r="H94">
-        <f>H93</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I94" s="2">
         <v>400</v>
       </c>
       <c r="J94">
-        <f>J93+1</f>
+        <f t="shared" si="27"/>
         <v>322</v>
       </c>
       <c r="K94" s="2">
         <v>400</v>
       </c>
       <c r="L94">
-        <f>L93+1</f>
+        <f t="shared" si="28"/>
         <v>322</v>
       </c>
     </row>
@@ -7575,35 +7583,35 @@
         <v>94</v>
       </c>
       <c r="D95" s="1">
-        <f>D94*1.05</f>
+        <f t="shared" si="24"/>
         <v>79435.854822391542</v>
       </c>
       <c r="E95">
         <v>2000</v>
       </c>
       <c r="F95">
-        <f>F94+10</f>
+        <f t="shared" si="25"/>
         <v>1905</v>
       </c>
       <c r="G95">
         <v>200</v>
       </c>
       <c r="H95">
-        <f>H94</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I95" s="2">
         <v>400</v>
       </c>
       <c r="J95">
-        <f>J94+1</f>
+        <f t="shared" si="27"/>
         <v>323</v>
       </c>
       <c r="K95" s="2">
         <v>400</v>
       </c>
       <c r="L95">
-        <f>L94+1</f>
+        <f t="shared" si="28"/>
         <v>323</v>
       </c>
     </row>
@@ -7618,35 +7626,35 @@
         <v>95</v>
       </c>
       <c r="D96" s="1">
-        <f>D95*1.05</f>
+        <f t="shared" si="24"/>
         <v>83407.647563511127</v>
       </c>
       <c r="E96">
         <v>2000</v>
       </c>
       <c r="F96">
-        <f>F95+10</f>
+        <f t="shared" si="25"/>
         <v>1915</v>
       </c>
       <c r="G96">
         <v>200</v>
       </c>
       <c r="H96">
-        <f>H95</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I96" s="2">
         <v>400</v>
       </c>
       <c r="J96">
-        <f>J95+1</f>
+        <f t="shared" si="27"/>
         <v>324</v>
       </c>
       <c r="K96" s="2">
         <v>400</v>
       </c>
       <c r="L96">
-        <f>L95+1</f>
+        <f t="shared" si="28"/>
         <v>324</v>
       </c>
     </row>
@@ -7661,35 +7669,35 @@
         <v>96</v>
       </c>
       <c r="D97" s="1">
-        <f>D96*1.05</f>
+        <f t="shared" si="24"/>
         <v>87578.029941686691</v>
       </c>
       <c r="E97">
         <v>2000</v>
       </c>
       <c r="F97">
-        <f>F96+10</f>
+        <f t="shared" si="25"/>
         <v>1925</v>
       </c>
       <c r="G97">
         <v>200</v>
       </c>
       <c r="H97">
-        <f>H96</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I97" s="2">
         <v>400</v>
       </c>
       <c r="J97">
-        <f>J96+1</f>
+        <f t="shared" si="27"/>
         <v>325</v>
       </c>
       <c r="K97" s="2">
         <v>400</v>
       </c>
       <c r="L97">
-        <f>L96+1</f>
+        <f t="shared" si="28"/>
         <v>325</v>
       </c>
     </row>
@@ -7704,35 +7712,35 @@
         <v>97</v>
       </c>
       <c r="D98" s="1">
-        <f>D97*1.05</f>
+        <f t="shared" si="24"/>
         <v>91956.931438771033</v>
       </c>
       <c r="E98">
         <v>2000</v>
       </c>
       <c r="F98">
-        <f>F97+10</f>
+        <f t="shared" si="25"/>
         <v>1935</v>
       </c>
       <c r="G98">
         <v>200</v>
       </c>
       <c r="H98">
-        <f>H97</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I98" s="2">
         <v>400</v>
       </c>
       <c r="J98">
-        <f>J97+1</f>
+        <f t="shared" si="27"/>
         <v>326</v>
       </c>
       <c r="K98" s="2">
         <v>400</v>
       </c>
       <c r="L98">
-        <f>L97+1</f>
+        <f t="shared" si="28"/>
         <v>326</v>
       </c>
     </row>
@@ -7747,35 +7755,35 @@
         <v>98</v>
       </c>
       <c r="D99" s="1">
-        <f>D98*1.05</f>
+        <f t="shared" si="24"/>
         <v>96554.77801070959</v>
       </c>
       <c r="E99">
         <v>2000</v>
       </c>
       <c r="F99">
-        <f>F98+10</f>
+        <f t="shared" si="25"/>
         <v>1945</v>
       </c>
       <c r="G99">
         <v>200</v>
       </c>
       <c r="H99">
-        <f>H98</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I99" s="2">
         <v>400</v>
       </c>
       <c r="J99">
-        <f>J98+1</f>
+        <f t="shared" si="27"/>
         <v>327</v>
       </c>
       <c r="K99" s="2">
         <v>400</v>
       </c>
       <c r="L99">
-        <f>L98+1</f>
+        <f t="shared" si="28"/>
         <v>327</v>
       </c>
     </row>
@@ -7790,35 +7798,35 @@
         <v>99</v>
       </c>
       <c r="D100" s="1">
-        <f>D99*1.05</f>
+        <f t="shared" si="24"/>
         <v>101382.51691124507</v>
       </c>
       <c r="E100">
         <v>2000</v>
       </c>
       <c r="F100">
-        <f>F99+10</f>
+        <f t="shared" si="25"/>
         <v>1955</v>
       </c>
       <c r="G100">
         <v>200</v>
       </c>
       <c r="H100">
-        <f>H99</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I100" s="2">
         <v>400</v>
       </c>
       <c r="J100">
-        <f>J99+1</f>
+        <f t="shared" si="27"/>
         <v>328</v>
       </c>
       <c r="K100" s="2">
         <v>400</v>
       </c>
       <c r="L100">
-        <f>L99+1</f>
+        <f t="shared" si="28"/>
         <v>328</v>
       </c>
     </row>
@@ -7833,35 +7841,35 @@
         <v>100</v>
       </c>
       <c r="D101" s="1">
-        <f>D100*1.05</f>
+        <f t="shared" si="24"/>
         <v>106451.64275680733</v>
       </c>
       <c r="E101">
         <v>2000</v>
       </c>
       <c r="F101">
-        <f>F100+10</f>
+        <f t="shared" si="25"/>
         <v>1965</v>
       </c>
       <c r="G101">
         <v>200</v>
       </c>
       <c r="H101">
-        <f>H100</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I101" s="2">
         <v>400</v>
       </c>
       <c r="J101">
-        <f>J100+1</f>
+        <f t="shared" si="27"/>
         <v>329</v>
       </c>
       <c r="K101" s="2">
         <v>400</v>
       </c>
       <c r="L101">
-        <f>L100+1</f>
+        <f t="shared" si="28"/>
         <v>329</v>
       </c>
     </row>
@@ -7883,28 +7891,28 @@
         <v>2000</v>
       </c>
       <c r="F102">
-        <f>F101+10</f>
+        <f t="shared" si="25"/>
         <v>1975</v>
       </c>
       <c r="G102">
         <v>200</v>
       </c>
       <c r="H102">
-        <f>H101</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="I102" s="2">
         <v>400</v>
       </c>
       <c r="J102">
-        <f>J101+1</f>
+        <f t="shared" si="27"/>
         <v>330</v>
       </c>
       <c r="K102" s="2">
         <v>400</v>
       </c>
       <c r="L102">
-        <f>L101+1</f>
+        <f t="shared" si="28"/>
         <v>330</v>
       </c>
     </row>
@@ -7951,6 +7959,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>